--- a/Wastewater_Effluent_Filtration/H+_OH- n#.xlsx
+++ b/Wastewater_Effluent_Filtration/H+_OH- n#.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6D334-59D8-4705-89CA-C7AABC31A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Recovery</t>
   </si>
@@ -47,9 +53,6 @@
   </si>
   <si>
     <t>Brine pH</t>
-  </si>
-  <si>
-    <t>Permeate pH</t>
   </si>
   <si>
     <t>Film layer pH</t>
@@ -85,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +126,2128 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brine pH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>7.170031591118998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1733559354007266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.176730577224439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1801316464246634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.183561242607623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1870148423550493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1904922434258589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1940002681575281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1975316997827798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2010933804503923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2046807719534813</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2082979431827221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2119403478975377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2156144218018641</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2193178438704431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2230501032277026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2268111398670101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2306049308734979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2344246137960209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2382807782572138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2421727600100576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2460937737142768</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2500499249988364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2539854756838418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.257957808056366</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.261961909290366</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2659953261779542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.2700656782558237</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2741724047919831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2783104676302726</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2824852979235644</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2866919866412712</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2909377606638888</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2952196387053867</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2995385059086324</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3038951606804696</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.3082883941571053</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3127207141675674</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3171908650822406</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.3217009585246924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.3262493973712104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.3308382665949523</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.3354692275269917</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.340138324964923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.3448507688870466</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3496945767922766</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3545862527129477</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.3594599798585936</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3643782843483754</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.3693376655152241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.3744638343875586</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.3796365808319067</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.3848562520601853</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3901230960498392</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.395438363886516</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4008010103466244</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.4062111556945984</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4116715008809928</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4171758615998877</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4227301218293382</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4283296781957953</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.4339752031303874</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4396692946383132</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4454056614591337</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4511899702232132</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4570146024140413</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4628831465924241</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4687898768772909</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4747380866241384</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4807212079437164</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.4867408281977452</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4927939977646707</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.4989153498515426</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5050519144486838</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5110088874673497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5169673157149104</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.5229202193413887</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.528859655074033</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.5347704614982156</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5408548745790984</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.5468824979705067</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.5528367565974177</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.5586535541377247</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.5641542842984988</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.5694714589396668</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.5745599793572191</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.5793643468133451</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.5838165131753863</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.5878643421376317</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5913534739670192</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5941499493846294</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.59606122921371</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.5967611484010877</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5953632357147924</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.5901814851856866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CB6-46A7-99AE-969580449AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brine pH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>7.170031591118998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1733411926611357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1767033741289268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1800899105027929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1835029209391257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1869419538056816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.190404909422889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1938940494469339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1974113162293412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.200956796916735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2045279006020619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.208124433130128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2117530108804972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2154068296336238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2190920552229088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2228041997414367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2265476685435761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2303194868472129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2341238625792119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2379562266751698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2418267625168049</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2457288135957922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2496617946290893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2536295005941058</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2575746243792612</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2615560778155057</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2655671628984377</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.2696111710434197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2736939009354442</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2778042430537857</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2819516383624254</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2861353880286526</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2903524743665438</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2946060444487184</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2988970717547303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3032242199456903</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.3075885481934284</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3119886484789696</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3164288158939499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.3209058637281554</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.3254257195480577</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.3299807685449121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.3345786462091533</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.3392155126026219</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.3438926024635887</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3487037115909892</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3535617864343976</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.3583918639812698</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3632675348716754</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.3681837297570549</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.3732678064911017</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.3783980174545976</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.3835731742694897</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3887952493547493</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3940673138521902</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.3993835077480608</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.4047506428948227</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4101634183466487</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4156238967973724</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4211333256825442</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4266887624692837</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.4322927055940449</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4379433136732276</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4436418518093657</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.449385462457303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4551753364080504</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.461008039886706</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4668865236391486</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4728057942310304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4787638467868147</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.484761906830129</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4908002999143237</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.4968749616908283</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5029836678319697</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5089150873258026</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5148526909867943</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.5207887171334864</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.5267121645387149</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.5326140939898032</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5386902704686136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.5447138402252376</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.5506659012409711</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.5564599588359327</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.561936981499664</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.5672308159321764</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.5722959388598987</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.5770792980204691</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.58151095133453</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.5855502033207758</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5890279198758916</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5918285584897349</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.5937546847696744</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.5945089280209981</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5931961989120804</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.5881138554064664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CB6-46A7-99AE-969580449AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712204128"/>
+        <c:axId val="1718009040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712204128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718009040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1718009040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712204128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5610098-8EA4-DACE-D399-908FBA6E4825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +2285,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,6 +2319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,9 +2354,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,14 +2530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,60 +2574,60 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.451338935819705E-06</v>
+        <v>5.4513389358197052E-6</v>
       </c>
       <c r="C2">
-        <v>0.03694686318841234</v>
+        <v>3.6946863188412338E-2</v>
       </c>
       <c r="D2">
-        <v>0.0001748378148772857</v>
+        <v>1.7483781487728569E-4</v>
       </c>
       <c r="E2">
-        <v>0.03925233628532358</v>
+        <v>3.9252336285323583E-2</v>
       </c>
       <c r="F2">
         <v>3.6</v>
       </c>
       <c r="G2">
-        <v>17.44398121590797</v>
+        <v>17.443981215907971</v>
       </c>
       <c r="H2">
         <v>15.63698752546998</v>
@@ -520,1398 +2642,1398 @@
         <v>7.170031591118998</v>
       </c>
       <c r="L2">
-        <v>5.322378197582488</v>
+        <v>7.170031591118998</v>
       </c>
       <c r="M2">
-        <v>7.201587762229027</v>
+        <v>7.2015877622290274</v>
       </c>
       <c r="N2">
-        <v>0.01385929047336624</v>
+        <v>1.385929047336624E-2</v>
       </c>
       <c r="O2">
-        <v>0.0001532499613984415</v>
+        <v>1.5324996139844151E-4</v>
       </c>
       <c r="P2">
-        <v>0.0153214278263131</v>
+        <v>1.53214278263131E-2</v>
       </c>
       <c r="Q2">
-        <v>0.001820643661547828</v>
+        <v>1.8206436615478281E-3</v>
       </c>
       <c r="R2">
-        <v>0.0003443183474015728</v>
+        <v>3.4431834740157282E-4</v>
       </c>
       <c r="S2">
-        <v>5.287191516396847E-07</v>
+        <v>5.2871915163968471E-7</v>
       </c>
       <c r="T2">
-        <v>0.01046677910478757</v>
+        <v>1.046677910478757E-2</v>
       </c>
       <c r="U2">
-        <v>0.0001379556837486603</v>
+        <v>1.379556837486603E-4</v>
       </c>
       <c r="V2">
-        <v>1.932897085002479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>1.9328970850024789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.455724692787506E-06</v>
+        <v>5.4557246927875063E-6</v>
       </c>
       <c r="C3">
-        <v>0.03731829778814502</v>
+        <v>3.7318297788145022E-2</v>
       </c>
       <c r="D3">
-        <v>0.0001765572531072915</v>
+        <v>1.7655725310729151E-4</v>
       </c>
       <c r="E3">
-        <v>0.03967011057283602</v>
+        <v>3.9670110572836023E-2</v>
       </c>
       <c r="F3">
         <v>3.599985244620505</v>
       </c>
       <c r="K3">
-        <v>7.173355935400727</v>
+        <v>7.1733559354007266</v>
       </c>
       <c r="L3">
-        <v>5.322549208659582</v>
+        <v>7.1733411926611357</v>
       </c>
       <c r="M3">
-        <v>7.201818387848141</v>
+        <v>7.2018183878481414</v>
       </c>
       <c r="N3">
-        <v>0.01399773532702248</v>
+        <v>1.3997735327022479E-2</v>
       </c>
       <c r="O3">
-        <v>0.000154661356227173</v>
+        <v>1.5466135622717301E-4</v>
       </c>
       <c r="P3">
-        <v>0.01545779938353295</v>
+        <v>1.545779938353295E-2</v>
       </c>
       <c r="Q3">
-        <v>0.001836095997702576</v>
+        <v>1.836095997702576E-3</v>
       </c>
       <c r="R3">
-        <v>0.0003477909699091479</v>
+        <v>3.477909699091479E-4</v>
       </c>
       <c r="S3">
-        <v>4.704228956863068E-07</v>
+        <v>4.7042289568630682E-7</v>
       </c>
       <c r="T3">
-        <v>0.01057111065449503</v>
+        <v>1.0571110654495029E-2</v>
       </c>
       <c r="U3">
-        <v>0.0001392898577813973</v>
+        <v>1.392898577813973E-4</v>
       </c>
       <c r="V3">
-        <v>1.942243641188819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>1.9422436411888191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.435923849354823E-06</v>
+        <v>5.4359238493548233E-6</v>
       </c>
       <c r="C4">
-        <v>0.03769729514054337</v>
+        <v>3.7697295140543367E-2</v>
       </c>
       <c r="D4">
-        <v>0.0001790544815246498</v>
+        <v>1.7905448152464979E-4</v>
       </c>
       <c r="E4">
-        <v>0.04008584113399313</v>
+        <v>4.0085841133993133E-2</v>
       </c>
       <c r="F4">
-        <v>3.599970414128759</v>
+        <v>3.5999704141287592</v>
       </c>
       <c r="K4">
         <v>7.176730577224439</v>
       </c>
       <c r="L4">
-        <v>5.328853968711114</v>
+        <v>7.1767033741289268</v>
       </c>
       <c r="M4">
-        <v>7.205398260942063</v>
+        <v>7.2053982609420633</v>
       </c>
       <c r="N4">
-        <v>0.01413899118386733</v>
+        <v>1.4138991183867329E-2</v>
       </c>
       <c r="O4">
-        <v>0.0001571683859911349</v>
+        <v>1.571683859911349E-4</v>
       </c>
       <c r="P4">
-        <v>0.01559679635685775</v>
+        <v>1.559679635685775E-2</v>
       </c>
       <c r="Q4">
-        <v>0.001839405147901565</v>
+        <v>1.839405147901565E-3</v>
       </c>
       <c r="R4">
-        <v>0.000351335057123571</v>
+        <v>3.5133505712357099E-4</v>
       </c>
       <c r="S4">
-        <v>4.723407617845534E-07</v>
+        <v>4.7234076178455338E-7</v>
       </c>
       <c r="T4">
-        <v>0.01067755780548191</v>
+        <v>1.0677557805481909E-2</v>
       </c>
       <c r="U4">
-        <v>0.000141585952765938</v>
+        <v>1.4158595276593801E-4</v>
       </c>
       <c r="V4">
-        <v>1.956082688860398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>1.9560826888603979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.415718892869462E-06</v>
+        <v>5.4157188928694624E-6</v>
       </c>
       <c r="C5">
-        <v>0.03808408112671882</v>
+        <v>3.8084081126718822E-2</v>
       </c>
       <c r="D5">
-        <v>0.0001816220325134832</v>
+        <v>1.8162203251348319E-4</v>
       </c>
       <c r="E5">
-        <v>0.04051019410486375</v>
+        <v>4.0510194104863749E-2</v>
       </c>
       <c r="F5">
-        <v>3.599955507076164</v>
+        <v>3.5999555070761642</v>
       </c>
       <c r="K5">
-        <v>7.180131646424663</v>
+        <v>7.1801316464246634</v>
       </c>
       <c r="L5">
-        <v>5.335234343413014</v>
+        <v>7.1800899105027929</v>
       </c>
       <c r="M5">
-        <v>7.20900555197867</v>
+        <v>7.2090055519786702</v>
       </c>
       <c r="N5">
-        <v>0.01428313368693822</v>
+        <v>1.428313368693822E-2</v>
       </c>
       <c r="O5">
-        <v>0.000159742866173267</v>
+        <v>1.59742866173267E-4</v>
       </c>
       <c r="P5">
-        <v>0.01573862513220782</v>
+        <v>1.573862513220782E-2</v>
       </c>
       <c r="Q5">
-        <v>0.00184279644877522</v>
+        <v>1.84279644877522E-3</v>
       </c>
       <c r="R5">
-        <v>0.0003549521985293626</v>
+        <v>3.5495219852936261E-4</v>
       </c>
       <c r="S5">
-        <v>4.742822438272876E-07</v>
+        <v>4.7428224382728762E-7</v>
       </c>
       <c r="T5">
-        <v>0.01078617607200475</v>
+        <v>1.0786176072004749E-2</v>
       </c>
       <c r="U5">
-        <v>0.0001439446648219696</v>
+        <v>1.439446648219696E-4</v>
       </c>
       <c r="V5">
-        <v>1.971264191350452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>1.9712641913504521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.395097563523028E-06</v>
+        <v>5.3950975635230284E-6</v>
       </c>
       <c r="C6">
-        <v>0.03847889840895013</v>
+        <v>3.8478898408950128E-2</v>
       </c>
       <c r="D6">
-        <v>0.0001842628799105473</v>
+        <v>1.8426287991054729E-4</v>
       </c>
       <c r="E6">
-        <v>0.04094343526421271</v>
+        <v>4.0943435264212708E-2</v>
       </c>
       <c r="F6">
-        <v>3.599940521968955</v>
+        <v>3.5999405219689549</v>
       </c>
       <c r="K6">
         <v>7.183561242607623</v>
       </c>
       <c r="L6">
-        <v>5.341707914852248</v>
+        <v>7.1835029209391257</v>
       </c>
       <c r="M6">
-        <v>7.212649723669739</v>
+        <v>7.2126497236697391</v>
       </c>
       <c r="N6">
-        <v>0.01443025234132119</v>
+        <v>1.4430252341321189E-2</v>
       </c>
       <c r="O6">
-        <v>0.000162390619946024</v>
+        <v>1.6239061994602401E-4</v>
       </c>
       <c r="P6">
-        <v>0.01588337334766024</v>
+        <v>1.588337334766024E-2</v>
       </c>
       <c r="Q6">
-        <v>0.001846242286636794</v>
+        <v>1.8462422866367941E-3</v>
       </c>
       <c r="R6">
-        <v>0.0003586446768240036</v>
+        <v>3.5864467682400361E-4</v>
       </c>
       <c r="S6">
-        <v>4.762510642798454E-07</v>
+        <v>4.7625106427984538E-7</v>
       </c>
       <c r="T6">
-        <v>0.01089703264916291</v>
+        <v>1.089703264916291E-2</v>
       </c>
       <c r="U6">
-        <v>0.0001463703916332799</v>
+        <v>1.4637039163327989E-4</v>
       </c>
       <c r="V6">
-        <v>1.987170464515139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>1.9871704645151389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.374047073439099E-06</v>
+        <v>5.374047073439099E-6</v>
       </c>
       <c r="C7">
-        <v>0.0388819998355716</v>
+        <v>3.8881999835571598E-2</v>
       </c>
       <c r="D7">
-        <v>0.0001869801672510192</v>
+        <v>1.8698016725101919E-4</v>
       </c>
       <c r="E7">
-        <v>0.04138584120072757</v>
+        <v>4.1385841200727573E-2</v>
       </c>
       <c r="F7">
-        <v>3.599925457266279</v>
+        <v>3.5999254572662789</v>
       </c>
       <c r="K7">
-        <v>7.187014842355049</v>
+        <v>7.1870148423550493</v>
       </c>
       <c r="L7">
-        <v>5.34825664309724</v>
+        <v>7.1869419538056816</v>
       </c>
       <c r="M7">
-        <v>7.216318205457639</v>
+        <v>7.2163182054576387</v>
       </c>
       <c r="N7">
-        <v>0.01458044035944093</v>
+        <v>1.458044035944093E-2</v>
       </c>
       <c r="O7">
-        <v>0.0001651113270853111</v>
+        <v>1.651113270853111E-4</v>
       </c>
       <c r="P7">
-        <v>0.0160311326219868</v>
+        <v>1.6031132621986799E-2</v>
       </c>
       <c r="Q7">
-        <v>0.001849790896039297</v>
+        <v>1.849790896039297E-3</v>
       </c>
       <c r="R7">
-        <v>0.0003624148707793691</v>
+        <v>3.6241487077936911E-4</v>
       </c>
       <c r="S7">
-        <v>4.782578419675755E-07</v>
+        <v>4.7825784196757548E-7</v>
       </c>
       <c r="T7">
-        <v>0.01101019751503164</v>
+        <v>1.101019751503164E-2</v>
       </c>
       <c r="U7">
-        <v>0.0001488628606390214</v>
+        <v>1.4886286063902141E-4</v>
       </c>
       <c r="V7">
-        <v>2.003594977164837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>2.0035949771648371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.352554135387657E-06</v>
+        <v>5.3525541353876569E-6</v>
       </c>
       <c r="C8">
-        <v>0.03929364898097927</v>
+        <v>3.9293648980979271E-2</v>
       </c>
       <c r="D8">
-        <v>0.0001897772181495306</v>
+        <v>1.8977721814953061E-4</v>
       </c>
       <c r="E8">
-        <v>0.04183769988353023</v>
+        <v>4.1837699883530227E-2</v>
       </c>
       <c r="F8">
         <v>3.599910311378157</v>
       </c>
       <c r="K8">
-        <v>7.190492243425859</v>
+        <v>7.1904922434258589</v>
       </c>
       <c r="L8">
-        <v>5.354890302768296</v>
+        <v>7.190404909422889</v>
       </c>
       <c r="M8">
-        <v>7.220016791562029</v>
+        <v>7.2200167915620286</v>
       </c>
       <c r="N8">
-        <v>0.01473379492361492</v>
+        <v>1.473379492361492E-2</v>
       </c>
       <c r="O8">
-        <v>0.0001679093986939492</v>
+        <v>1.6790939869394919E-4</v>
       </c>
       <c r="P8">
-        <v>0.01618199795949688</v>
+        <v>1.6181997959496881E-2</v>
       </c>
       <c r="Q8">
-        <v>0.001853429654421999</v>
+        <v>1.853429654421999E-3</v>
       </c>
       <c r="R8">
-        <v>0.0003662652602787032</v>
+        <v>3.6626526027870322E-4</v>
       </c>
       <c r="S8">
-        <v>4.802997627796596E-07</v>
+        <v>4.8029976277965959E-7</v>
       </c>
       <c r="T8">
-        <v>0.01112574362837624</v>
+        <v>1.112574362837624E-2</v>
       </c>
       <c r="U8">
-        <v>0.0001514259695930866</v>
+        <v>1.514259695930866E-4</v>
       </c>
       <c r="V8">
         <v>2.020457017565394</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.330604885622175E-06</v>
+        <v>5.3306048856221746E-6</v>
       </c>
       <c r="C9">
-        <v>0.03971412072036454</v>
+        <v>3.9714120720364537E-2</v>
       </c>
       <c r="D9">
-        <v>0.000192657551053165</v>
+        <v>1.9265755105316501E-4</v>
       </c>
       <c r="E9">
-        <v>0.04229931121632603</v>
+        <v>4.2299311216326033E-2</v>
       </c>
       <c r="F9">
-        <v>3.599895082663351</v>
+        <v>3.5998950826633509</v>
       </c>
       <c r="K9">
-        <v>7.194000268157528</v>
+        <v>7.1940002681575281</v>
       </c>
       <c r="L9">
-        <v>5.361612681318692</v>
+        <v>7.1938940494469339</v>
       </c>
       <c r="M9">
-        <v>7.223747068918575</v>
+        <v>7.2237470689185752</v>
       </c>
       <c r="N9">
-        <v>0.01489041734861407</v>
+        <v>1.4890417348614069E-2</v>
       </c>
       <c r="O9">
-        <v>0.0001707879179264632</v>
+        <v>1.7078791792646321E-4</v>
       </c>
       <c r="P9">
-        <v>0.01633606858643317</v>
+        <v>1.6336068586433172E-2</v>
       </c>
       <c r="Q9">
-        <v>0.001857153488639744</v>
+        <v>1.857153488639744E-3</v>
       </c>
       <c r="R9">
-        <v>0.000370198431897154</v>
+        <v>3.7019843189715402E-4</v>
       </c>
       <c r="S9">
-        <v>4.823769874591246E-07</v>
+        <v>4.8237698745912456E-7</v>
       </c>
       <c r="T9">
-        <v>0.01124374704406208</v>
+        <v>1.124374704406208E-2</v>
       </c>
       <c r="U9">
-        <v>0.0001540626495160474</v>
+        <v>1.5406264951604739E-4</v>
       </c>
       <c r="V9">
         <v>2.037721363165887</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.308184955370118E-06</v>
+        <v>5.3081849553701178E-6</v>
       </c>
       <c r="C10">
-        <v>0.04014370184177009</v>
+        <v>4.0143701841770088E-2</v>
       </c>
       <c r="D10">
-        <v>0.0001956248901763046</v>
+        <v>1.9562489017630461E-4</v>
       </c>
       <c r="E10">
-        <v>0.04277098769992586</v>
+        <v>4.2770987699925857E-2</v>
       </c>
       <c r="F10">
         <v>3.599879769427087</v>
       </c>
       <c r="K10">
-        <v>7.19753169978278</v>
+        <v>7.1975316997827798</v>
       </c>
       <c r="L10">
-        <v>5.368420438638314</v>
+        <v>7.1974113162293412</v>
       </c>
       <c r="M10">
-        <v>7.227506665324598</v>
+        <v>7.2275066653245981</v>
       </c>
       <c r="N10">
-        <v>0.01505041332068676</v>
+        <v>1.505041332068676E-2</v>
       </c>
       <c r="O10">
-        <v>0.0001737494230531834</v>
+        <v>1.7374942305318339E-4</v>
       </c>
       <c r="P10">
-        <v>0.0164934480983657</v>
+        <v>1.6493448098365698E-2</v>
       </c>
       <c r="Q10">
-        <v>0.001860977003889471</v>
+        <v>1.860977003889471E-3</v>
       </c>
       <c r="R10">
-        <v>0.0003742170846679115</v>
+        <v>3.742170846679115E-4</v>
       </c>
       <c r="S10">
-        <v>4.84495231025289E-07</v>
+        <v>4.8449523102528895E-7</v>
       </c>
       <c r="T10">
-        <v>0.01136428709182889</v>
+        <v>1.1364287091828891E-2</v>
       </c>
       <c r="U10">
-        <v>0.0001567751505812054</v>
+        <v>1.5677515058120541E-4</v>
       </c>
       <c r="V10">
         <v>2.055371948902263</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.285279319201233E-06</v>
+        <v>5.2852793192012331E-6</v>
       </c>
       <c r="C11">
-        <v>0.04058269169838101</v>
+        <v>4.058269169838101E-2</v>
       </c>
       <c r="D11">
-        <v>0.0001986831850725214</v>
+        <v>1.9868318507252139E-4</v>
       </c>
       <c r="E11">
-        <v>0.04325305502340089</v>
+        <v>4.3253055023400891E-2</v>
       </c>
       <c r="F11">
-        <v>3.599864369918686</v>
+        <v>3.5998643699186861</v>
       </c>
       <c r="K11">
-        <v>7.201093380450392</v>
+        <v>7.2010933804503923</v>
       </c>
       <c r="L11">
-        <v>5.37532699407762</v>
+        <v>7.200956796916735</v>
       </c>
       <c r="M11">
-        <v>7.231302700285376</v>
+        <v>7.2313027002853758</v>
       </c>
       <c r="N11">
-        <v>0.01521389314373768</v>
+        <v>1.5213893143737681E-2</v>
       </c>
       <c r="O11">
-        <v>0.0001767990549855764</v>
+        <v>1.7679905498557639E-4</v>
       </c>
       <c r="P11">
-        <v>0.01665424448401929</v>
+        <v>1.6654244484019289E-2</v>
       </c>
       <c r="Q11">
-        <v>0.00186487835041492</v>
+        <v>1.8648783504149201E-3</v>
       </c>
       <c r="R11">
-        <v>0.0003783240362001849</v>
+        <v>3.7832403620018492E-4</v>
       </c>
       <c r="S11">
-        <v>4.866496290467777E-07</v>
+        <v>4.8664962904677767E-7</v>
       </c>
       <c r="T11">
-        <v>0.01148744656371073</v>
+        <v>1.1487446563710729E-2</v>
       </c>
       <c r="U11">
-        <v>0.0001595682008089744</v>
+        <v>1.5956820080897439E-4</v>
       </c>
       <c r="V11">
-        <v>2.073405760165491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>2.0734057601654912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.26187230347365E-06</v>
+        <v>5.2618723034736502E-6</v>
       </c>
       <c r="C12">
-        <v>0.04103140290408444</v>
+        <v>4.1031402904084441E-2</v>
       </c>
       <c r="D12">
-        <v>0.000201836626312527</v>
+        <v>2.0183662631252701E-4</v>
       </c>
       <c r="E12">
-        <v>0.04374585277311233</v>
+        <v>4.3745852773112333E-2</v>
       </c>
       <c r="F12">
         <v>3.599848882329042</v>
       </c>
       <c r="K12">
-        <v>7.204680771953481</v>
+        <v>7.2046807719534813</v>
       </c>
       <c r="L12">
-        <v>5.382314123360072</v>
+        <v>7.2045279006020619</v>
       </c>
       <c r="M12">
         <v>7.235123796762867</v>
       </c>
       <c r="N12">
-        <v>0.01538097196694604</v>
+        <v>1.5380971966946041E-2</v>
       </c>
       <c r="O12">
-        <v>0.0001799374901814673</v>
+        <v>1.799374901814673E-4</v>
       </c>
       <c r="P12">
-        <v>0.01681857077439267</v>
+        <v>1.6818570774392669E-2</v>
       </c>
       <c r="Q12">
-        <v>0.001868907983468776</v>
+        <v>1.868907983468776E-3</v>
       </c>
       <c r="R12">
-        <v>0.0003825222293843087</v>
+        <v>3.8252222938430869E-4</v>
       </c>
       <c r="S12">
-        <v>4.888524412273794E-07</v>
+        <v>4.8885244122737938E-7</v>
       </c>
       <c r="T12">
-        <v>0.01161331187885408</v>
+        <v>1.1613311878854079E-2</v>
       </c>
       <c r="U12">
-        <v>0.0001624422303484838</v>
+        <v>1.624422303484838E-4</v>
       </c>
       <c r="V12">
         <v>2.091821426460684</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.23794767307961E-06</v>
+        <v>5.23794767307961E-6</v>
       </c>
       <c r="C13">
-        <v>0.0414901620757448</v>
+        <v>4.1490162075744803E-2</v>
       </c>
       <c r="D13">
-        <v>0.000205089659638196</v>
+        <v>2.05089659638196E-4</v>
       </c>
       <c r="E13">
-        <v>0.0442497352305516</v>
+        <v>4.4249735230551597E-2</v>
       </c>
       <c r="F13">
-        <v>3.599833304787915</v>
+        <v>3.5998333047879152</v>
       </c>
       <c r="K13">
-        <v>7.208297943182722</v>
+        <v>7.2082979431827221</v>
       </c>
       <c r="L13">
-        <v>5.389401818464925</v>
+        <v>7.208124433130128</v>
       </c>
       <c r="M13">
-        <v>7.238981362913652</v>
+        <v>7.2389813629136519</v>
       </c>
       <c r="N13">
-        <v>0.01555177010713441</v>
+        <v>1.555177010713441E-2</v>
       </c>
       <c r="O13">
-        <v>0.0001831710947700243</v>
+        <v>1.8317109477002431E-4</v>
       </c>
       <c r="P13">
-        <v>0.01698654451361653</v>
+        <v>1.6986544513616531E-2</v>
       </c>
       <c r="Q13">
-        <v>0.0018730265084101</v>
+        <v>1.8730265084100999E-3</v>
       </c>
       <c r="R13">
-        <v>0.0003868147392376018</v>
+        <v>3.8681473923760182E-4</v>
       </c>
       <c r="S13">
-        <v>4.910959126785953E-07</v>
+        <v>4.910959126785953E-7</v>
       </c>
       <c r="T13">
-        <v>0.01174197333557886</v>
+        <v>1.1741973335578859E-2</v>
       </c>
       <c r="U13">
-        <v>0.0001654031584212963</v>
+        <v>1.6540315842129629E-4</v>
       </c>
       <c r="V13">
-        <v>2.110624945309025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>2.1106249453090249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.213488369446267E-06</v>
+        <v>5.2134883694462667E-6</v>
       </c>
       <c r="C14">
-        <v>0.04195931062592783</v>
+        <v>4.195931062592783E-2</v>
       </c>
       <c r="D14">
-        <v>0.0002084470142050269</v>
+        <v>2.0844701420502689E-4</v>
       </c>
       <c r="E14">
-        <v>0.04476507203280727</v>
+        <v>4.4765072032807267E-2</v>
       </c>
       <c r="F14">
-        <v>3.599817635361185</v>
+        <v>3.5998176353611848</v>
       </c>
       <c r="K14">
-        <v>7.211940347897538</v>
+        <v>7.2119403478975377</v>
       </c>
       <c r="L14">
-        <v>5.396580345216249</v>
+        <v>7.2117530108804972</v>
       </c>
       <c r="M14">
-        <v>7.242868427192985</v>
+        <v>7.2428684271929846</v>
       </c>
       <c r="N14">
-        <v>0.01572641327772946</v>
+        <v>1.5726413277729459E-2</v>
       </c>
       <c r="O14">
-        <v>0.0001865020562409146</v>
+        <v>1.8650205624091461E-4</v>
       </c>
       <c r="P14">
-        <v>0.01715828903640297</v>
+        <v>1.7158289036402971E-2</v>
       </c>
       <c r="Q14">
-        <v>0.001877268491203075</v>
+        <v>1.877268491203075E-3</v>
       </c>
       <c r="R14">
-        <v>0.0003912047806390213</v>
+        <v>3.9120478063902128E-4</v>
       </c>
       <c r="S14">
-        <v>4.933922889074286E-07</v>
+        <v>4.9339228890742861E-7</v>
       </c>
       <c r="T14">
-        <v>0.0118735252694102</v>
+        <v>1.18735252694102E-2</v>
       </c>
       <c r="U14">
-        <v>0.0001684528125994824</v>
+        <v>1.6845281259948239E-4</v>
       </c>
       <c r="V14">
         <v>2.129822438541511</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.188476673364413E-06</v>
+        <v>5.188476673364413E-6</v>
       </c>
       <c r="C15">
-        <v>0.04243920560997062</v>
+        <v>4.2439205609970623E-2</v>
       </c>
       <c r="D15">
-        <v>0.000211913717526107</v>
+        <v>2.1191371752610699E-4</v>
       </c>
       <c r="E15">
-        <v>0.04529224910703582</v>
+        <v>4.5292249107035817E-2</v>
       </c>
       <c r="F15">
         <v>3.599801872047784</v>
       </c>
       <c r="K15">
-        <v>7.215614421801864</v>
+        <v>7.2156144218018641</v>
       </c>
       <c r="L15">
-        <v>5.403861644320982</v>
+        <v>7.2154068296336238</v>
       </c>
       <c r="M15">
-        <v>7.246791892051982</v>
+        <v>7.2467918920519816</v>
       </c>
       <c r="N15">
-        <v>0.01590503294694197</v>
+        <v>1.5905032946941969E-2</v>
       </c>
       <c r="O15">
-        <v>0.0001899361990380635</v>
+        <v>1.8993619903806349E-4</v>
       </c>
       <c r="P15">
-        <v>0.01733393295071561</v>
+        <v>1.733393295071561E-2</v>
       </c>
       <c r="Q15">
-        <v>0.00188161144124016</v>
+        <v>1.8816114412401599E-3</v>
       </c>
       <c r="R15">
-        <v>0.0003956957161372985</v>
+        <v>3.9569571613729849E-4</v>
       </c>
       <c r="S15">
-        <v>4.957336242229749E-07</v>
+        <v>4.9573362422297493E-7</v>
       </c>
       <c r="T15">
-        <v>0.01200806633213216</v>
+        <v>1.200806633213216E-2</v>
       </c>
       <c r="U15">
-        <v>0.0001715965957760142</v>
+        <v>1.715965957760142E-4</v>
       </c>
       <c r="V15">
-        <v>2.14942368603267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>2.1494236860326699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.162894098849697E-06</v>
+        <v>5.1628940988496974E-6</v>
       </c>
       <c r="C16">
-        <v>0.04293022063197579</v>
+        <v>4.2930220631975789E-2</v>
       </c>
       <c r="D16">
-        <v>0.0002154951219680387</v>
+        <v>2.1549512196803871E-4</v>
       </c>
       <c r="E16">
-        <v>0.045831669518839</v>
+        <v>4.5831669518838998E-2</v>
       </c>
       <c r="F16">
-        <v>3.59978601277658</v>
+        <v>3.5997860127765802</v>
       </c>
       <c r="K16">
-        <v>7.219317843870443</v>
+        <v>7.2193178438704431</v>
       </c>
       <c r="L16">
-        <v>5.41124711103339</v>
+        <v>7.2190920552229088</v>
       </c>
       <c r="M16">
-        <v>7.250751937256337</v>
+        <v>7.2507519372563367</v>
       </c>
       <c r="N16">
-        <v>0.01608776663005713</v>
+        <v>1.6087766630057131E-2</v>
       </c>
       <c r="O16">
-        <v>0.0001934779214842952</v>
+        <v>1.934779214842952E-4</v>
       </c>
       <c r="P16">
-        <v>0.01751361110780254</v>
+        <v>1.751361110780254E-2</v>
       </c>
       <c r="Q16">
-        <v>0.001886063670409112</v>
+        <v>1.886063670409112E-3</v>
       </c>
       <c r="R16">
-        <v>0.0004002910647711715</v>
+        <v>4.0029106477117149E-4</v>
       </c>
       <c r="S16">
-        <v>4.981260447089992E-07</v>
+        <v>4.9812604470899916E-7</v>
       </c>
       <c r="T16">
-        <v>0.01214569970115956</v>
+        <v>1.214569970115956E-2</v>
       </c>
       <c r="U16">
-        <v>0.0001748383746782259</v>
+        <v>1.7483837467822591E-4</v>
       </c>
       <c r="V16">
-        <v>2.1694394714716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>2.1694394714716001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.136721286765132E-06</v>
+        <v>5.1367212867651323E-6</v>
       </c>
       <c r="C17">
-        <v>0.04343274681444647</v>
+        <v>4.343274681444647E-2</v>
       </c>
       <c r="D17">
-        <v>0.000219196933819577</v>
+        <v>2.1919693381957701E-4</v>
       </c>
       <c r="E17">
-        <v>0.0463837543731254</v>
+        <v>4.6383754373125398E-2</v>
       </c>
       <c r="F17">
         <v>3.599770055403035</v>
       </c>
       <c r="K17">
-        <v>7.223050103227703</v>
+        <v>7.2230501032277026</v>
       </c>
       <c r="L17">
-        <v>5.41872719074019</v>
+        <v>7.2228041997414367</v>
       </c>
       <c r="M17">
-        <v>7.254741106884959</v>
+        <v>7.2547411068849588</v>
       </c>
       <c r="N17">
-        <v>0.0162747582619227</v>
+        <v>1.6274758261922699E-2</v>
       </c>
       <c r="O17">
-        <v>0.0001971296823945073</v>
+        <v>1.9712968239450729E-4</v>
       </c>
       <c r="P17">
-        <v>0.01769746460706599</v>
+        <v>1.7697464607065991E-2</v>
       </c>
       <c r="Q17">
-        <v>0.001890657641352341</v>
+        <v>1.890657641352341E-3</v>
       </c>
       <c r="R17">
-        <v>0.0004049945111091299</v>
+        <v>4.0499451110912989E-4</v>
       </c>
       <c r="S17">
-        <v>5.005772403123402E-07</v>
+        <v>5.0057724031234016E-7</v>
       </c>
       <c r="T17">
-        <v>0.01228653336382405</v>
+        <v>1.228653336382405E-2</v>
       </c>
       <c r="U17">
-        <v>0.000178180381283512</v>
+        <v>1.7818038128351201E-4</v>
       </c>
       <c r="V17">
-        <v>2.189879837139831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>2.1898798371398311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.109938072082851E-06</v>
+        <v>5.1099380720828509E-6</v>
       </c>
       <c r="C18">
-        <v>0.04394719383683488</v>
+        <v>4.3947193836834882E-2</v>
       </c>
       <c r="D18">
-        <v>0.0002230252381797062</v>
+        <v>2.230252381797062E-4</v>
       </c>
       <c r="E18">
-        <v>0.04694894387736898</v>
+        <v>4.6948943877368983E-2</v>
       </c>
       <c r="F18">
-        <v>3.599753997705602</v>
+        <v>3.5997539977056019</v>
       </c>
       <c r="K18">
-        <v>7.22681113986701</v>
+        <v>7.2268111398670101</v>
       </c>
       <c r="L18">
-        <v>5.426321275827819</v>
+        <v>7.2265476685435761</v>
       </c>
       <c r="M18">
-        <v>7.258771132363615</v>
+        <v>7.2587711323636146</v>
       </c>
       <c r="N18">
-        <v>0.01646615860215517</v>
+        <v>1.6466158602155171E-2</v>
       </c>
       <c r="O18">
-        <v>0.0002008995747271107</v>
+        <v>2.008995747271107E-4</v>
       </c>
       <c r="P18">
-        <v>0.01788564088046734</v>
+        <v>1.7885640880467339E-2</v>
       </c>
       <c r="Q18">
-        <v>0.001895358552342252</v>
+        <v>1.895358552342252E-3</v>
       </c>
       <c r="R18">
-        <v>0.0004098099150837587</v>
+        <v>4.0980991508375868E-4</v>
       </c>
       <c r="S18">
-        <v>5.030842678239387E-07</v>
+        <v>5.030842678239387E-7</v>
       </c>
       <c r="T18">
-        <v>0.01243068042314001</v>
+        <v>1.243068042314001E-2</v>
       </c>
       <c r="U18">
-        <v>0.0001816299047512771</v>
+        <v>1.8162990475127709E-4</v>
       </c>
       <c r="V18">
-        <v>2.21075846998279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>2.2107584699827898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.082523347337149E-06</v>
+        <v>5.0825233473371489E-6</v>
       </c>
       <c r="C19">
-        <v>0.04447399104886687</v>
+        <v>4.4473991048866873E-2</v>
       </c>
       <c r="D19">
-        <v>0.0002269865345337509</v>
+        <v>2.2698653453375091E-4</v>
       </c>
       <c r="E19">
-        <v>0.04752769835490846</v>
+        <v>4.7527698354908457E-2</v>
       </c>
       <c r="F19">
-        <v>3.599737837381984</v>
+        <v>3.5997378373819839</v>
       </c>
       <c r="K19">
-        <v>7.230604930873498</v>
+        <v>7.2306049308734979</v>
       </c>
       <c r="L19">
-        <v>5.434020295678874</v>
+        <v>7.2303194868472129</v>
       </c>
       <c r="M19">
-        <v>7.262835030571554</v>
+        <v>7.2628350305715541</v>
       </c>
       <c r="N19">
-        <v>0.01666212557838925</v>
+        <v>1.666212557838925E-2</v>
       </c>
       <c r="O19">
-        <v>0.0002047907280170048</v>
+        <v>2.047907280170048E-4</v>
       </c>
       <c r="P19">
-        <v>0.01807829488442066</v>
+        <v>1.807829488442066E-2</v>
       </c>
       <c r="Q19">
-        <v>0.001900198474961397</v>
+        <v>1.9001984749613969E-3</v>
       </c>
       <c r="R19">
-        <v>0.0004147413226839506</v>
+        <v>4.1474132268395062E-4</v>
       </c>
       <c r="S19">
-        <v>5.056520336933113E-07</v>
+        <v>5.0565203369331134E-7</v>
       </c>
       <c r="T19">
-        <v>0.01257825934504831</v>
+        <v>1.2578259345048311E-2</v>
       </c>
       <c r="U19">
-        <v>0.0001851897420803479</v>
+        <v>1.851897420803479E-4</v>
       </c>
       <c r="V19">
-        <v>2.232088192555288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>2.2320881925552878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.054455059066431E-06</v>
+        <v>5.0544550590664313E-6</v>
       </c>
       <c r="C20">
-        <v>0.04501358866489532</v>
+        <v>4.501358866489532E-2</v>
       </c>
       <c r="D20">
-        <v>0.0002310877703288114</v>
+        <v>2.3108777032881139E-4</v>
       </c>
       <c r="E20">
-        <v>0.04812049940734572</v>
+        <v>4.8120499407345717E-2</v>
       </c>
       <c r="F20">
-        <v>3.599721572045124</v>
+        <v>3.5997215720451239</v>
       </c>
       <c r="K20">
-        <v>7.234424613796021</v>
+        <v>7.2344246137960209</v>
       </c>
       <c r="L20">
-        <v>5.441817474173905</v>
+        <v>7.2341238625792119</v>
       </c>
       <c r="M20">
-        <v>7.266927929129706</v>
+        <v>7.2669279291297064</v>
       </c>
       <c r="N20">
-        <v>0.01686282478388159</v>
+        <v>1.686282478388159E-2</v>
       </c>
       <c r="O20">
-        <v>0.0002088071252174969</v>
+        <v>2.0880712521749689E-4</v>
       </c>
       <c r="P20">
-        <v>0.0182755887430726</v>
+        <v>1.8275588743072599E-2</v>
       </c>
       <c r="Q20">
-        <v>0.001905205255351801</v>
+        <v>1.905205255351801E-3</v>
       </c>
       <c r="R20">
-        <v>0.0004197929772040756</v>
+        <v>4.1979297720407557E-4</v>
       </c>
       <c r="S20">
-        <v>5.082933289445018E-07</v>
+        <v>5.0829332894450178E-7</v>
       </c>
       <c r="T20">
-        <v>0.01272939434020645</v>
+        <v>1.272939434020645E-2</v>
       </c>
       <c r="U20">
-        <v>0.000188863354034899</v>
+        <v>1.88863354034899E-4</v>
       </c>
       <c r="V20">
-        <v>2.253881679967272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>2.2538816799672721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.025710179576233E-06</v>
+        <v>5.0257101795762329E-6</v>
       </c>
       <c r="C21">
-        <v>0.04556645904630972</v>
+        <v>4.5566459046309717E-2</v>
       </c>
       <c r="D21">
-        <v>0.0002353363789027274</v>
+        <v>2.3533637890272739E-4</v>
       </c>
       <c r="E21">
-        <v>0.04872785114216827</v>
+        <v>4.8727851142168273E-2</v>
       </c>
       <c r="F21">
         <v>3.599705199218902</v>
       </c>
       <c r="K21">
-        <v>7.238280778257214</v>
+        <v>7.2382807782572138</v>
       </c>
       <c r="L21">
-        <v>5.449031862868192</v>
+        <v>7.2379562266751698</v>
       </c>
       <c r="M21">
-        <v>7.270642747751528</v>
+        <v>7.2706427477515279</v>
       </c>
       <c r="N21">
-        <v>0.0170684299401614</v>
+        <v>1.70684299401614E-2</v>
       </c>
       <c r="O21">
-        <v>0.0002128218808780797</v>
+        <v>2.1282188087807971E-4</v>
       </c>
       <c r="P21">
-        <v>0.018477692242921</v>
+        <v>1.8477692242921E-2</v>
       </c>
       <c r="Q21">
-        <v>0.001911940500343085</v>
+        <v>1.9119405003430851E-3</v>
       </c>
       <c r="R21">
-        <v>0.0004249693313259909</v>
+        <v>4.2496933132599092E-4</v>
       </c>
       <c r="S21">
-        <v>5.03526873452272E-07</v>
+        <v>5.0352687345227197E-7</v>
       </c>
       <c r="T21">
-        <v>0.0128842157104061</v>
+        <v>1.2884215710406099E-2</v>
       </c>
       <c r="U21">
-        <v>0.0001925308369634313</v>
+        <v>1.9253083696343129E-4</v>
       </c>
       <c r="V21">
-        <v>2.27606507380364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>2.2760650738036401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.996264565333688E-06</v>
+        <v>4.9962645653336878E-6</v>
       </c>
       <c r="C22">
-        <v>0.0461330980796523</v>
+        <v>4.6133098079652303E-2</v>
       </c>
       <c r="D22">
-        <v>0.0002397403262788965</v>
+        <v>2.3974032627889651E-4</v>
       </c>
       <c r="E22">
-        <v>0.04935028141151003</v>
+        <v>4.935028141151003E-2</v>
       </c>
       <c r="F22">
-        <v>3.59968871633367</v>
+        <v>3.5996887163336702</v>
       </c>
       <c r="K22">
-        <v>7.242172760010058</v>
+        <v>7.2421727600100576</v>
       </c>
       <c r="L22">
-        <v>5.45705879011625</v>
+        <v>7.2418267625168049</v>
       </c>
       <c r="M22">
-        <v>7.274811721785727</v>
+        <v>7.2748117217857269</v>
       </c>
       <c r="N22">
-        <v>0.01727912504090244</v>
+        <v>1.7279125040902441E-2</v>
       </c>
       <c r="O22">
-        <v>0.0002171084632558356</v>
+        <v>2.1710846325583561E-4</v>
       </c>
       <c r="P22">
-        <v>0.01868476413970323</v>
+        <v>1.8684764139703231E-2</v>
       </c>
       <c r="Q22">
-        <v>0.001917237352385851</v>
+        <v>1.917237352385851E-3</v>
       </c>
       <c r="R22">
-        <v>0.0004302751538816476</v>
+        <v>4.3027515388164759E-4</v>
       </c>
       <c r="S22">
-        <v>5.060811852911563E-07</v>
+        <v>5.060811852911563E-7</v>
       </c>
       <c r="T22">
-        <v>0.01304286177132413</v>
+        <v>1.3042861771324131E-2</v>
       </c>
       <c r="U22">
-        <v>0.0001964496165895484</v>
+        <v>1.964496165895484E-4</v>
       </c>
       <c r="V22">
         <v>2.298750335909951</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.966092958388466E-06</v>
+        <v>4.9660929583884661E-6</v>
       </c>
       <c r="C23">
-        <v>0.04671402665880892</v>
+        <v>4.6714026658808923E-2</v>
       </c>
       <c r="D23">
-        <v>0.0002443081564531907</v>
+        <v>2.4430815645319067E-4</v>
       </c>
       <c r="E23">
-        <v>0.0499883432298053</v>
+        <v>4.9988343229805297E-2</v>
       </c>
       <c r="F23">
-        <v>3.599672120721354</v>
+        <v>3.5996721207213538</v>
       </c>
       <c r="K23">
-        <v>7.246093773714277</v>
+        <v>7.2460937737142768</v>
       </c>
       <c r="L23">
-        <v>5.465201378920692</v>
+        <v>7.2457288135957922</v>
       </c>
       <c r="M23">
-        <v>7.279017380143143</v>
+        <v>7.2790173801431433</v>
       </c>
       <c r="N23">
-        <v>0.01749509993429037</v>
+        <v>1.7495099934290371E-2</v>
       </c>
       <c r="O23">
-        <v>0.000221540514166941</v>
+        <v>2.2154051416694101E-4</v>
       </c>
       <c r="P23">
-        <v>0.01889701131422623</v>
+        <v>1.889701131422623E-2</v>
       </c>
       <c r="Q23">
-        <v>0.001922696793954992</v>
+        <v>1.922696793954992E-3</v>
       </c>
       <c r="R23">
-        <v>0.0004357152687259053</v>
+        <v>4.3571526872590528E-4</v>
       </c>
       <c r="S23">
-        <v>5.087063570311493E-07</v>
+        <v>5.0870635703114929E-7</v>
       </c>
       <c r="T23">
-        <v>0.01320547458340938</v>
+        <v>1.320547458340938E-2</v>
       </c>
       <c r="U23">
-        <v>0.0002005005039615543</v>
+        <v>2.0050050396155431E-4</v>
       </c>
       <c r="V23">
-        <v>2.321953164323378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>2.3219531643233782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.935168914586715E-06</v>
+        <v>4.9351689145867146E-6</v>
       </c>
       <c r="C24">
-        <v>0.047309792280634</v>
+        <v>4.7309792280633998E-2</v>
       </c>
       <c r="D24">
-        <v>0.0002490490447767368</v>
+        <v>2.4904904477673678E-4</v>
       </c>
       <c r="E24">
-        <v>0.05064261624402504</v>
+        <v>5.0642616244025038E-2</v>
       </c>
       <c r="F24">
         <v>3.599655409610361</v>
       </c>
       <c r="K24">
-        <v>7.250049924998836</v>
+        <v>7.2500499249988364</v>
       </c>
       <c r="L24">
-        <v>5.481198109726302</v>
+        <v>7.2496617946290893</v>
       </c>
       <c r="M24">
-        <v>7.287827186523508</v>
+        <v>7.2878271865235078</v>
       </c>
       <c r="N24">
-        <v>0.01771655582429195</v>
+        <v>1.7716555824291949E-2</v>
       </c>
       <c r="O24">
-        <v>0.0002276983256630458</v>
+        <v>2.2769832566304579E-4</v>
       </c>
       <c r="P24">
-        <v>0.01911463073115279</v>
+        <v>1.9114630731152792E-2</v>
       </c>
       <c r="Q24">
-        <v>0.001910750547591938</v>
+        <v>1.9107505475919381E-3</v>
       </c>
       <c r="R24">
-        <v>0.0004412948400383268</v>
+        <v>4.4129484003832678E-4</v>
       </c>
       <c r="S24">
-        <v>6.014267232871471E-07</v>
+        <v>6.0142672328714706E-7</v>
       </c>
       <c r="T24">
-        <v>0.01337220502032538</v>
+        <v>1.337220502032538E-2</v>
       </c>
       <c r="U24">
-        <v>0.0002061730467569995</v>
+        <v>2.0617304675699951E-4</v>
       </c>
       <c r="V24">
-        <v>2.346593920575071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>2.3465939205750712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.903464727556283E-06</v>
+        <v>4.9034647275562832E-6</v>
       </c>
       <c r="C25">
-        <v>0.04792097076421657</v>
+        <v>4.7920970764216572E-2</v>
       </c>
       <c r="D25">
-        <v>0.0002539728573049395</v>
+        <v>2.5397285730493948E-4</v>
       </c>
       <c r="E25">
-        <v>0.0513137083042691</v>
+        <v>5.1313708304269103E-2</v>
       </c>
       <c r="F25">
-        <v>3.599638580120063</v>
+        <v>3.5996385801200632</v>
       </c>
       <c r="K25">
-        <v>7.253985475683842</v>
+        <v>7.2539854756838418</v>
       </c>
       <c r="L25">
-        <v>5.489612906403215</v>
+        <v>7.2536295005941058</v>
       </c>
       <c r="M25">
         <v>7.292114617400534</v>
       </c>
       <c r="N25">
-        <v>0.01794368384375466</v>
+        <v>1.7943683843754658E-2</v>
       </c>
       <c r="O25">
-        <v>0.000232477567364652</v>
+        <v>2.3247756736465201E-4</v>
       </c>
       <c r="P25">
-        <v>0.01933805774652371</v>
+        <v>1.933805774652371E-2</v>
       </c>
       <c r="Q25">
-        <v>0.001916496283873013</v>
+        <v>1.9164962838730129E-3</v>
       </c>
       <c r="R25">
-        <v>0.0004470181311203403</v>
+        <v>4.4701813112034032E-4</v>
       </c>
       <c r="S25">
-        <v>6.063808359369412E-07</v>
+        <v>6.0638083593694123E-7</v>
       </c>
       <c r="T25">
-        <v>0.01354319244855354</v>
+        <v>1.3543192448553541E-2</v>
       </c>
       <c r="U25">
-        <v>0.0002105416462782863</v>
+        <v>2.105416462782863E-4</v>
       </c>
       <c r="V25">
-        <v>2.371731632467987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>2.3717316324679869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.870951400401518E-06</v>
+        <v>4.8709514004015177E-6</v>
       </c>
       <c r="C26">
-        <v>0.04854816810509698</v>
+        <v>4.8548168105096982E-2</v>
       </c>
       <c r="D26">
-        <v>0.0002590902143338128</v>
+        <v>2.5909021433381281E-4</v>
       </c>
       <c r="E26">
-        <v>0.05200225718192769</v>
+        <v>5.2002257181927691E-2</v>
       </c>
       <c r="F26">
-        <v>3.599621629254928</v>
+        <v>3.5996216292549281</v>
       </c>
       <c r="K26">
         <v>7.257957808056366</v>
       </c>
       <c r="L26">
-        <v>5.498165582505545</v>
+        <v>7.2575746243792612</v>
       </c>
       <c r="M26">
-        <v>7.296445448236076</v>
+        <v>7.2964454482360761</v>
       </c>
       <c r="N26">
-        <v>0.0181767260316019</v>
+        <v>1.8176726031601899E-2</v>
       </c>
       <c r="O26">
-        <v>0.0002374295502590538</v>
+        <v>2.3742955025905381E-4</v>
       </c>
       <c r="P26">
-        <v>0.01956728881840069</v>
+        <v>1.956728881840069E-2</v>
       </c>
       <c r="Q26">
-        <v>0.001922407250706405</v>
+        <v>1.922407250706405E-3</v>
       </c>
       <c r="R26">
-        <v>0.0004528919699398719</v>
+        <v>4.5289196993987188E-4</v>
       </c>
       <c r="S26">
-        <v>6.115787299757621E-07</v>
+        <v>6.1157872997576207E-7</v>
       </c>
       <c r="T26">
-        <v>0.01371862206437295</v>
+        <v>1.3718622064372949E-2</v>
       </c>
       <c r="U26">
-        <v>0.0002150649387024618</v>
+        <v>2.1506493870246179E-4</v>
       </c>
       <c r="V26">
-        <v>2.397393361415675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>2.3973933614156748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.837598435017155E-06</v>
+        <v>4.8375984350171554E-6</v>
       </c>
       <c r="C27">
-        <v>0.04919202247697382</v>
+        <v>4.9192022476973823E-2</v>
       </c>
       <c r="D27">
-        <v>0.0002644125701732519</v>
+        <v>2.6441257017325188E-4</v>
       </c>
       <c r="E27">
-        <v>0.0527089322777988</v>
+        <v>5.2708932277798798E-2</v>
       </c>
       <c r="F27">
         <v>3.599604553898347</v>
@@ -1920,1006 +4042,1006 @@
         <v>7.261961909290366</v>
       </c>
       <c r="L27">
-        <v>5.506856242136775</v>
+        <v>7.2615560778155057</v>
       </c>
       <c r="M27">
-        <v>7.300820582013253</v>
+        <v>7.3008205820132526</v>
       </c>
       <c r="N27">
-        <v>0.01841591665135314</v>
+        <v>1.8415916651353139E-2</v>
       </c>
       <c r="O27">
-        <v>0.0002425609982874058</v>
+        <v>2.4256099828740579E-4</v>
       </c>
       <c r="P27">
-        <v>0.01980255390596995</v>
+        <v>1.9802553905969949E-2</v>
       </c>
       <c r="Q27">
-        <v>0.001928489914015208</v>
+        <v>1.9284899140152079E-3</v>
       </c>
       <c r="R27">
-        <v>0.0004589223751560038</v>
+        <v>4.5892237515600382E-4</v>
       </c>
       <c r="S27">
-        <v>6.169482581761278E-07</v>
+        <v>6.1694825817612781E-7</v>
       </c>
       <c r="T27">
-        <v>0.01389866949271523</v>
+        <v>1.389866949271523E-2</v>
       </c>
       <c r="U27">
-        <v>0.0002197506742440208</v>
+        <v>2.1975067424402081E-4</v>
       </c>
       <c r="V27">
         <v>2.423606182008649</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.803373926006992E-06</v>
+        <v>4.8033739260069924E-6</v>
       </c>
       <c r="C28">
-        <v>0.0498532063946333</v>
+        <v>4.9853206394633302E-2</v>
       </c>
       <c r="D28">
-        <v>0.0002699522865334377</v>
+        <v>2.6995228653343772E-4</v>
       </c>
       <c r="E28">
-        <v>0.05343443668180539</v>
+        <v>5.3434436681805392E-2</v>
       </c>
       <c r="F28">
-        <v>3.599587350805853</v>
+        <v>3.5995873508058529</v>
       </c>
       <c r="K28">
-        <v>7.265995326177954</v>
+        <v>7.2659953261779542</v>
       </c>
       <c r="L28">
-        <v>5.515668768711842</v>
+        <v>7.2655671628984377</v>
       </c>
       <c r="M28">
-        <v>7.305228818283232</v>
+        <v>7.3052288182832319</v>
       </c>
       <c r="N28">
-        <v>0.01866150253855673</v>
+        <v>1.866150253855673E-2</v>
       </c>
       <c r="O28">
-        <v>0.0002478771233433236</v>
+        <v>2.4787712334332359E-4</v>
       </c>
       <c r="P28">
-        <v>0.02004409531126663</v>
+        <v>2.0044095311266628E-2</v>
       </c>
       <c r="Q28">
-        <v>0.001934802121685284</v>
+        <v>1.934802121685284E-3</v>
       </c>
       <c r="R28">
-        <v>0.0004651156917357042</v>
+        <v>4.6511569173570419E-4</v>
       </c>
       <c r="S28">
-        <v>6.225110066539259E-07</v>
+        <v>6.2251100665392593E-7</v>
       </c>
       <c r="T28">
-        <v>0.01408351974701889</v>
+        <v>1.408351974701889E-2</v>
       </c>
       <c r="U28">
-        <v>0.0002246031094580839</v>
+        <v>2.246031094580839E-4</v>
       </c>
       <c r="V28">
         <v>2.450395366623781</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.768244325296094E-06</v>
+        <v>4.768244325296094E-6</v>
       </c>
       <c r="C29">
-        <v>0.05053242905364836</v>
+        <v>5.053242905364836E-2</v>
       </c>
       <c r="D29">
-        <v>0.000275722731614984</v>
+        <v>2.7572273161498398E-4</v>
       </c>
       <c r="E29">
-        <v>0.05417950913498872</v>
+        <v>5.4179509134988722E-2</v>
       </c>
       <c r="F29">
         <v>3.599570016598014</v>
       </c>
       <c r="K29">
-        <v>7.270065678255824</v>
+        <v>7.2700656782558237</v>
       </c>
       <c r="L29">
-        <v>5.524618039424069</v>
+        <v>7.2696111710434197</v>
       </c>
       <c r="M29">
-        <v>7.309677319651271</v>
+        <v>7.3096773196512714</v>
       </c>
       <c r="N29">
-        <v>0.01891374398260075</v>
+        <v>1.8913743982600751E-2</v>
       </c>
       <c r="O29">
-        <v>0.0002533896091128512</v>
+        <v>2.5338960911285122E-4</v>
       </c>
       <c r="P29">
-        <v>0.02029216782071295</v>
+        <v>2.0292167820712949E-2</v>
       </c>
       <c r="Q29">
-        <v>0.001941325422107797</v>
+        <v>1.9413254221077971E-3</v>
       </c>
       <c r="R29">
-        <v>0.0004714786120196638</v>
+        <v>4.7147861201966379E-4</v>
       </c>
       <c r="S29">
-        <v>6.28272918778183E-07</v>
+        <v>6.2827291877818304E-7</v>
       </c>
       <c r="T29">
-        <v>0.01427336792013616</v>
+        <v>1.427336792013616E-2</v>
       </c>
       <c r="U29">
-        <v>0.0002296328643833331</v>
+        <v>2.296328643833331E-4</v>
       </c>
       <c r="V29">
         <v>2.477787891489891</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.732174430888286E-06</v>
+        <v>4.732174430888286E-6</v>
       </c>
       <c r="C30">
-        <v>0.0512304388636766</v>
+        <v>5.1230438863676599E-2</v>
       </c>
       <c r="D30">
-        <v>0.0002817383790746213</v>
+        <v>2.8173837907462132E-4</v>
       </c>
       <c r="E30">
-        <v>0.05494492631088414</v>
+        <v>5.4944926310884143E-2</v>
       </c>
       <c r="F30">
-        <v>3.599552547752784</v>
+        <v>3.5995525477527841</v>
       </c>
       <c r="K30">
-        <v>7.274172404791983</v>
+        <v>7.2741724047919831</v>
       </c>
       <c r="L30">
-        <v>5.533719500889542</v>
+        <v>7.2736939009354442</v>
       </c>
       <c r="M30">
-        <v>7.314173619231813</v>
+        <v>7.3141736192318128</v>
       </c>
       <c r="N30">
-        <v>0.01917291557112141</v>
+        <v>1.9172915571121409E-2</v>
       </c>
       <c r="O30">
-        <v>0.0002591113518172064</v>
+        <v>2.5911135181720641E-4</v>
       </c>
       <c r="P30">
-        <v>0.02054704063180469</v>
+        <v>2.0547040631804691E-2</v>
       </c>
       <c r="Q30">
-        <v>0.001948042718485038</v>
+        <v>1.948042718485038E-3</v>
       </c>
       <c r="R30">
-        <v>0.0004780182000627317</v>
+        <v>4.7801820006273171E-4</v>
       </c>
       <c r="S30">
-        <v>6.342389616741233E-07</v>
+        <v>6.3423896167412333E-7</v>
       </c>
       <c r="T30">
-        <v>0.01446841979591051</v>
+        <v>1.4468419795910511E-2</v>
       </c>
       <c r="U30">
-        <v>0.0002348515344487746</v>
+        <v>2.348515344487746E-4</v>
       </c>
       <c r="V30">
         <v>2.505812614168232</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.695127307907181E-06</v>
+        <v>4.695127307907181E-6</v>
       </c>
       <c r="C31">
-        <v>0.05194802619444565</v>
+        <v>5.1948026194445648E-2</v>
       </c>
       <c r="D31">
-        <v>0.0002880149226197585</v>
+        <v>2.8801492261975849E-4</v>
       </c>
       <c r="E31">
-        <v>0.05573150521687156</v>
+        <v>5.5731505216871563E-2</v>
       </c>
       <c r="F31">
         <v>3.599534940597227</v>
       </c>
       <c r="K31">
-        <v>7.278310467630273</v>
+        <v>7.2783104676302726</v>
       </c>
       <c r="L31">
-        <v>5.542953215050418</v>
+        <v>7.2778042430537857</v>
       </c>
       <c r="M31">
-        <v>7.318704128177041</v>
+        <v>7.3187041281770409</v>
       </c>
       <c r="N31">
-        <v>0.01943930717984401</v>
+        <v>1.9439307179844011E-2</v>
       </c>
       <c r="O31">
-        <v>0.0002650485325155176</v>
+        <v>2.6504853251551762E-4</v>
       </c>
       <c r="P31">
-        <v>0.0208089983488937</v>
+        <v>2.0808998348893701E-2</v>
       </c>
       <c r="Q31">
-        <v>0.001955023522860088</v>
+        <v>1.9550235228600879E-3</v>
       </c>
       <c r="R31">
-        <v>0.0004847419178247184</v>
+        <v>4.8474191782471842E-4</v>
       </c>
       <c r="S31">
-        <v>6.40437881499323E-07</v>
+        <v>6.4043788149932298E-7</v>
       </c>
       <c r="T31">
-        <v>0.01466889258832546</v>
+        <v>1.4668892588325461E-2</v>
       </c>
       <c r="U31">
-        <v>0.0002402641405162746</v>
+        <v>2.402641405162746E-4</v>
       </c>
       <c r="V31">
-        <v>2.534496889455075</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>2.5344968894550748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.657064019094369E-06</v>
+        <v>4.6570640190943687E-6</v>
       </c>
       <c r="C32">
-        <v>0.05268602635547173</v>
+        <v>5.2686026355471732E-2</v>
       </c>
       <c r="D32">
-        <v>0.0002945694159056572</v>
+        <v>2.945694159056572E-4</v>
       </c>
       <c r="E32">
-        <v>0.05654010561680276</v>
+        <v>5.6540105616802762E-2</v>
       </c>
       <c r="F32">
         <v>3.599517191298832</v>
       </c>
       <c r="K32">
-        <v>7.282485297923564</v>
+        <v>7.2824852979235644</v>
       </c>
       <c r="L32">
-        <v>5.552345381832356</v>
+        <v>7.2819516383624254</v>
       </c>
       <c r="M32">
-        <v>7.323282284030993</v>
+        <v>7.3232822840309932</v>
       </c>
       <c r="N32">
-        <v>0.01971322516052013</v>
+        <v>1.9713225160520129E-2</v>
       </c>
       <c r="O32">
-        <v>0.0002712174498593825</v>
+        <v>2.7121744985938252E-4</v>
       </c>
       <c r="P32">
-        <v>0.02107834084640847</v>
+        <v>2.1078340846408469E-2</v>
       </c>
       <c r="Q32">
-        <v>0.00196222760079752</v>
+        <v>1.9622276007975198E-3</v>
       </c>
       <c r="R32">
-        <v>0.0004916576532524787</v>
+        <v>4.9165765325247875E-4</v>
       </c>
       <c r="S32">
-        <v>6.468716104485144E-07</v>
+        <v>6.4687161044851436E-7</v>
       </c>
       <c r="T32">
-        <v>0.0148750158518656</v>
+        <v>1.4875015851865601E-2</v>
       </c>
       <c r="U32">
-        <v>0.0002458854372736161</v>
+        <v>2.4588543727361607E-4</v>
       </c>
       <c r="V32">
-        <v>2.56387121113848</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>2.5638712111384798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.617943739189676E-06</v>
+        <v>4.6179437391896759E-6</v>
       </c>
       <c r="C33">
-        <v>0.05344532283285675</v>
+        <v>5.3445322832856752E-2</v>
       </c>
       <c r="D33">
-        <v>0.0003014204076274782</v>
+        <v>3.0142040762747821E-4</v>
       </c>
       <c r="E33">
-        <v>0.0573716329647129</v>
+        <v>5.7371632964712899E-2</v>
       </c>
       <c r="F33">
-        <v>3.599499295855867</v>
+        <v>3.5994992958558671</v>
       </c>
       <c r="K33">
-        <v>7.286691986641271</v>
+        <v>7.2866919866412712</v>
       </c>
       <c r="L33">
-        <v>5.56187993172936</v>
+        <v>7.2861353880286526</v>
       </c>
       <c r="M33">
-        <v>7.327896461616027</v>
+        <v>7.3278964616160271</v>
       </c>
       <c r="N33">
-        <v>0.01999499338821086</v>
+        <v>1.9994993388210858E-2</v>
       </c>
       <c r="O33">
-        <v>0.0002776265405588514</v>
+        <v>2.7762654055885143E-4</v>
       </c>
       <c r="P33">
-        <v>0.02135538596591008</v>
+        <v>2.1355385965910079E-2</v>
       </c>
       <c r="Q33">
-        <v>0.001969717820666273</v>
+        <v>1.969717820666273E-3</v>
       </c>
       <c r="R33">
-        <v>0.0004987737515371459</v>
+        <v>4.9877375153714587E-4</v>
       </c>
       <c r="S33">
-        <v>6.535689928557227E-07</v>
+        <v>6.535689928557227E-7</v>
       </c>
       <c r="T33">
-        <v>0.01508703223468577</v>
+        <v>1.5087032234685769E-2</v>
       </c>
       <c r="U33">
-        <v>0.0002517224805101649</v>
+        <v>2.5172248051016487E-4</v>
       </c>
       <c r="V33">
         <v>2.593965350616275</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.577723428068727E-06</v>
+        <v>4.5777234280687267E-6</v>
       </c>
       <c r="C34">
-        <v>0.05422685080969836</v>
+        <v>5.4226850809698357E-2</v>
       </c>
       <c r="D34">
-        <v>0.0003085881208024844</v>
+        <v>3.0858812080248438E-4</v>
       </c>
       <c r="E34">
-        <v>0.05822704118440376</v>
+        <v>5.8227041184403763E-2</v>
       </c>
       <c r="F34">
         <v>3.599481250087365</v>
       </c>
       <c r="K34">
-        <v>7.290937760663889</v>
+        <v>7.2909377606638888</v>
       </c>
       <c r="L34">
-        <v>5.571582697183182</v>
+        <v>7.2903524743665438</v>
       </c>
       <c r="M34">
-        <v>7.332559669590135</v>
+        <v>7.3325596695901352</v>
       </c>
       <c r="N34">
-        <v>0.02028495466538222</v>
+        <v>2.0284954665382219E-2</v>
       </c>
       <c r="O34">
-        <v>0.000284294007188375</v>
+        <v>2.8429400718837499E-4</v>
       </c>
       <c r="P34">
-        <v>0.02164046932098719</v>
+        <v>2.1640469320987191E-2</v>
       </c>
       <c r="Q34">
-        <v>0.001977456913466609</v>
+        <v>1.977456913466609E-3</v>
       </c>
       <c r="R34">
-        <v>0.0005060990483392678</v>
+        <v>5.0609904833926779E-4</v>
       </c>
       <c r="S34">
-        <v>6.605351827238397E-07</v>
+        <v>6.6053518272383974E-7</v>
       </c>
       <c r="T34">
-        <v>0.01530519855460011</v>
+        <v>1.530519855460011E-2</v>
       </c>
       <c r="U34">
-        <v>0.0002577916958139209</v>
+        <v>2.5779169581392091E-4</v>
       </c>
       <c r="V34">
         <v>2.624812444538474</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.536357870040541E-06</v>
+        <v>4.5363578700405408E-6</v>
       </c>
       <c r="C35">
-        <v>0.05503160099908487</v>
+        <v>5.503160099908487E-2</v>
       </c>
       <c r="D35">
-        <v>0.0003160946331355117</v>
+        <v>3.1609463313551168E-4</v>
       </c>
       <c r="E35">
-        <v>0.05910733599032517</v>
+        <v>5.9107335990325173E-2</v>
       </c>
       <c r="F35">
         <v>3.599463049622079</v>
       </c>
       <c r="K35">
-        <v>7.295219638705387</v>
+        <v>7.2952196387053867</v>
       </c>
       <c r="L35">
-        <v>5.581448124594144</v>
+        <v>7.2946060444487184</v>
       </c>
       <c r="M35">
-        <v>7.337266554208165</v>
+        <v>7.3372665542081652</v>
       </c>
       <c r="N35">
-        <v>0.02058347198863884</v>
+        <v>2.058347198863884E-2</v>
       </c>
       <c r="O35">
-        <v>0.000291232384523952</v>
+        <v>2.9123238452395201E-4</v>
       </c>
       <c r="P35">
-        <v>0.02193394711811436</v>
+        <v>2.1933947118114361E-2</v>
       </c>
       <c r="Q35">
-        <v>0.001985485667800473</v>
+        <v>1.9854856678004728E-3</v>
       </c>
       <c r="R35">
-        <v>0.0005136429067445894</v>
+        <v>5.1364290674458938E-4</v>
       </c>
       <c r="S35">
-        <v>6.677962088786516E-07</v>
+        <v>6.6779620887865162E-7</v>
       </c>
       <c r="T35">
-        <v>0.01552978671667155</v>
+        <v>1.5529786716671551E-2</v>
       </c>
       <c r="U35">
-        <v>0.0002641037942512811</v>
+        <v>2.6410379425128108E-4</v>
       </c>
       <c r="V35">
-        <v>2.656446145030128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>2.6564461450301282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.493799343063306E-06</v>
+        <v>4.4937993430633063E-6</v>
       </c>
       <c r="C36">
-        <v>0.05586062382281137</v>
+        <v>5.5860623822811373E-2</v>
       </c>
       <c r="D36">
-        <v>0.000323964105846275</v>
+        <v>3.2396410584627499E-4</v>
       </c>
       <c r="E36">
-        <v>0.06001357812913787</v>
+        <v>6.0013578129137872E-2</v>
       </c>
       <c r="F36">
-        <v>3.599444689886677</v>
+        <v>3.5994446898866772</v>
       </c>
       <c r="K36">
-        <v>7.299538505908632</v>
+        <v>7.2995385059086324</v>
       </c>
       <c r="L36">
-        <v>5.591481765347547</v>
+        <v>7.2988970717547303</v>
       </c>
       <c r="M36">
-        <v>7.342017337899305</v>
+        <v>7.3420173378993052</v>
       </c>
       <c r="N36">
-        <v>0.02089093016445876</v>
+        <v>2.0890930164458761E-2</v>
       </c>
       <c r="O36">
-        <v>0.0002984574829625504</v>
+        <v>2.984574829625504E-4</v>
       </c>
       <c r="P36">
-        <v>0.02223619653402821</v>
+        <v>2.223619653402821E-2</v>
       </c>
       <c r="Q36">
-        <v>0.001993820090550703</v>
+        <v>1.9938200905507031E-3</v>
       </c>
       <c r="R36">
-        <v>0.0005214152569042214</v>
+        <v>5.2141525690422143E-4</v>
       </c>
       <c r="S36">
-        <v>6.753731036026305E-07</v>
+        <v>6.7537310360263046E-7</v>
       </c>
       <c r="T36">
-        <v>0.01576108494276883</v>
+        <v>1.576108494276883E-2</v>
       </c>
       <c r="U36">
-        <v>0.0002706727010411732</v>
+        <v>2.706727010411732E-4</v>
       </c>
       <c r="V36">
-        <v>2.688901832723206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>2.6889018327232059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.44999767840124E-06</v>
+        <v>4.4499976784012404E-6</v>
       </c>
       <c r="C37">
-        <v>0.05671503397230315</v>
+        <v>5.6715033972303153E-2</v>
       </c>
       <c r="D37">
-        <v>0.0003322230183976962</v>
+        <v>3.3222301839769622E-4</v>
       </c>
       <c r="E37">
-        <v>0.06094688724886924</v>
+        <v>6.0946887248869243E-2</v>
       </c>
       <c r="F37">
         <v>3.599426166093028</v>
       </c>
       <c r="K37">
-        <v>7.30389516068047</v>
+        <v>7.3038951606804696</v>
       </c>
       <c r="L37">
-        <v>5.601688634967433</v>
+        <v>7.3032242199456903</v>
       </c>
       <c r="M37">
-        <v>7.346812656594336</v>
+        <v>7.3468126565943361</v>
       </c>
       <c r="N37">
-        <v>0.02120773743648178</v>
+        <v>2.1207737436481779E-2</v>
       </c>
       <c r="O37">
-        <v>0.0003059863651549115</v>
+        <v>3.0598636515491152E-4</v>
       </c>
       <c r="P37">
-        <v>0.02254761771008171</v>
+        <v>2.2547617710081711E-2</v>
       </c>
       <c r="Q37">
-        <v>0.002002479101597365</v>
+        <v>2.0024791015973648E-3</v>
       </c>
       <c r="R37">
-        <v>0.0005294266397319233</v>
+        <v>5.294266397319233E-4</v>
       </c>
       <c r="S37">
-        <v>6.832898028263459E-07</v>
+        <v>6.8328980282634591E-7</v>
       </c>
       <c r="T37">
-        <v>0.01599939897725694</v>
+        <v>1.599939897725694E-2</v>
       </c>
       <c r="U37">
-        <v>0.0002775132133160741</v>
+        <v>2.7751321331607413E-4</v>
       </c>
       <c r="V37">
-        <v>2.722216716030104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>2.7222167160301041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.404899883551713E-06</v>
+        <v>4.4048998835517129E-6</v>
       </c>
       <c r="C38">
-        <v>0.05759601539345791</v>
+        <v>5.7596015393457912E-2</v>
       </c>
       <c r="D38">
-        <v>0.0003409004669292739</v>
+        <v>3.4090046692927388E-4</v>
       </c>
       <c r="E38">
-        <v>0.06190844565263994</v>
+        <v>6.1908445652639942E-2</v>
       </c>
       <c r="F38">
-        <v>3.599407473224469</v>
+        <v>3.5994074732244692</v>
       </c>
       <c r="K38">
-        <v>7.308288394157105</v>
+        <v>7.3082883941571053</v>
       </c>
       <c r="L38">
-        <v>5.612074157724468</v>
+        <v>7.3075885481934284</v>
       </c>
       <c r="M38">
-        <v>7.351652448672487</v>
+        <v>7.3516524486724872</v>
       </c>
       <c r="N38">
-        <v>0.02153432729697126</v>
+        <v>2.1534327296971259E-2</v>
       </c>
       <c r="O38">
-        <v>0.0003138373643833542</v>
+        <v>3.1383736438335419E-4</v>
       </c>
       <c r="P38">
-        <v>0.02286863550083928</v>
+        <v>2.2868635500839282E-2</v>
       </c>
       <c r="Q38">
-        <v>0.002011483133857597</v>
+        <v>2.011483133857597E-3</v>
       </c>
       <c r="R38">
-        <v>0.0005376882545745653</v>
+        <v>5.3768825457456535E-4</v>
       </c>
       <c r="S38">
-        <v>6.915734190254954E-07</v>
+        <v>6.9157341902549538E-7</v>
       </c>
       <c r="T38">
-        <v>0.01624505344231852</v>
+        <v>1.6245053442318521E-2</v>
       </c>
       <c r="U38">
-        <v>0.0002846413576380939</v>
+        <v>2.8464135763809392E-4</v>
       </c>
       <c r="V38">
-        <v>2.75643004970138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>2.7564300497013798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.358450144245919E-06</v>
+        <v>4.3584501442459193E-6</v>
       </c>
       <c r="C39">
-        <v>0.05850482674149804</v>
+        <v>5.8504826741498039E-2</v>
       </c>
       <c r="D39">
-        <v>0.0003500284795146446</v>
+        <v>3.5002847951464457E-4</v>
       </c>
       <c r="E39">
-        <v>0.06289950273251925</v>
+        <v>6.289950273251925E-2</v>
       </c>
       <c r="F39">
-        <v>3.599388606020859</v>
+        <v>3.5993886060208591</v>
       </c>
       <c r="K39">
-        <v>7.312720714167567</v>
+        <v>7.3127207141675674</v>
       </c>
       <c r="L39">
-        <v>5.622650484466796</v>
+        <v>7.3119886484789696</v>
       </c>
       <c r="M39">
-        <v>7.356540874611942</v>
+        <v>7.3565408746119418</v>
       </c>
       <c r="N39">
-        <v>0.0218711604705044</v>
+        <v>2.18711604705044E-2</v>
       </c>
       <c r="O39">
-        <v>0.0003220320255040137</v>
+        <v>3.2203202550401371E-4</v>
       </c>
       <c r="P39">
-        <v>0.02319970141142629</v>
+        <v>2.3199701411426289E-2</v>
       </c>
       <c r="Q39">
-        <v>0.002020838623070967</v>
+        <v>2.0208386230709668E-3</v>
       </c>
       <c r="R39">
-        <v>0.0005462120114183041</v>
+        <v>5.4621201141830415E-4</v>
       </c>
       <c r="S39">
-        <v>7.002491640267115E-07</v>
+        <v>7.0024916402671153E-7</v>
       </c>
       <c r="T39">
-        <v>0.01649839331667852</v>
+        <v>1.649839331667852E-2</v>
       </c>
       <c r="U39">
-        <v>0.0002920759612558521</v>
+        <v>2.9207596125585208E-4</v>
       </c>
       <c r="V39">
-        <v>2.791583898213337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>2.7915838982133372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.310589533667048E-06</v>
+        <v>4.3105895336670477E-6</v>
       </c>
       <c r="C40">
-        <v>0.0594428073586268</v>
+        <v>5.9442807358626802E-2</v>
       </c>
       <c r="D40">
-        <v>0.0003596424004057347</v>
+        <v>3.5964240040573469E-4</v>
       </c>
       <c r="E40">
-        <v>0.06392137946690238</v>
+        <v>6.3921379466902378E-2</v>
       </c>
       <c r="F40">
-        <v>3.599369558962551</v>
+        <v>3.5993695589625512</v>
       </c>
       <c r="K40">
-        <v>7.317190865082241</v>
+        <v>7.3171908650822406</v>
       </c>
       <c r="L40">
-        <v>5.633420656192254</v>
+        <v>7.3164288158939499</v>
       </c>
       <c r="M40">
         <v>7.361475849802499</v>
       </c>
       <c r="N40">
-        <v>0.02221872705832699</v>
+        <v>2.221872705832699E-2</v>
       </c>
       <c r="O40">
-        <v>0.0003305909598269094</v>
+        <v>3.3059095982690938E-4</v>
       </c>
       <c r="P40">
-        <v>0.02354129597252879</v>
+        <v>2.354129597252879E-2</v>
       </c>
       <c r="Q40">
-        <v>0.002030578162043056</v>
+        <v>2.030578162043056E-3</v>
       </c>
       <c r="R40">
-        <v>0.0005550105882288571</v>
+        <v>5.550105882288571E-4</v>
       </c>
       <c r="S40">
-        <v>7.093501190290316E-07</v>
+        <v>7.0935011902903157E-7</v>
       </c>
       <c r="T40">
-        <v>0.01675978553208857</v>
+        <v>1.675978553208857E-2</v>
       </c>
       <c r="U40">
-        <v>0.0002998347952943532</v>
+        <v>2.9983479529435318E-4</v>
       </c>
       <c r="V40">
-        <v>2.82772239612759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>2.8277223961275899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.261255885940825E-06</v>
+        <v>4.261255885940825E-6</v>
       </c>
       <c r="C41">
-        <v>0.06041138383335174</v>
+        <v>6.0411383833351741E-2</v>
       </c>
       <c r="D41">
-        <v>0.0003697813211430896</v>
+        <v>3.6978132114308962E-4</v>
       </c>
       <c r="E41">
-        <v>0.06497547345857503</v>
+        <v>6.4975473458575031E-2</v>
       </c>
       <c r="F41">
-        <v>3.599350326252828</v>
+        <v>3.5993503262528281</v>
       </c>
       <c r="K41">
-        <v>7.321700958524692</v>
+        <v>7.3217009585246924</v>
       </c>
       <c r="L41">
-        <v>5.644389815179933</v>
+        <v>7.3209058637281554</v>
       </c>
       <c r="M41">
         <v>7.366457025325885</v>
       </c>
       <c r="N41">
-        <v>0.02257754896158109</v>
+        <v>2.2577548961581088E-2</v>
       </c>
       <c r="O41">
-        <v>0.0003395376146311788</v>
+        <v>3.395376146311788E-4</v>
       </c>
       <c r="P41">
-        <v>0.02389393069073348</v>
+        <v>2.3893930690733482E-2</v>
       </c>
       <c r="Q41">
-        <v>0.002040729643961208</v>
+        <v>2.0407296439612079E-3</v>
       </c>
       <c r="R41">
-        <v>0.0005640974937716413</v>
+        <v>5.6409749377164125E-4</v>
       </c>
       <c r="S41">
-        <v>7.189128097883166E-07</v>
+        <v>7.1891280978831662E-7</v>
       </c>
       <c r="T41">
-        <v>0.0170296207900688</v>
+        <v>1.7029620790068801E-2</v>
       </c>
       <c r="U41">
-        <v>0.000307938132265087</v>
+        <v>3.0793813226508702E-4</v>
       </c>
       <c r="V41">
         <v>2.864892365503553</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.210383482425352E-06</v>
+        <v>4.2103834824253524E-6</v>
       </c>
       <c r="C42">
-        <v>0.06141207720855522</v>
+        <v>6.1412077208555217E-2</v>
       </c>
       <c r="D42">
-        <v>0.0003804885952343276</v>
+        <v>3.804885952343276E-4</v>
       </c>
       <c r="E42">
-        <v>0.06606326418464961</v>
+        <v>6.6063264184649612E-2</v>
       </c>
       <c r="F42">
-        <v>3.599330901799109</v>
+        <v>3.5993309017991089</v>
       </c>
       <c r="K42">
-        <v>7.32624939737121</v>
+        <v>7.3262493973712104</v>
       </c>
       <c r="L42">
-        <v>5.6555647612928</v>
+        <v>7.3254257195480577</v>
       </c>
       <c r="M42">
-        <v>7.371484075210384</v>
+        <v>7.3714840752103843</v>
       </c>
       <c r="N42">
-        <v>0.02294818248403025</v>
+        <v>2.2948182484030251E-2</v>
       </c>
       <c r="O42">
-        <v>0.0003488972627439554</v>
+        <v>3.4889726274395542E-4</v>
       </c>
       <c r="P42">
-        <v>0.02425815070817968</v>
+        <v>2.4258150708179681E-2</v>
       </c>
       <c r="Q42">
-        <v>0.002051323932291736</v>
+        <v>2.0513239322917359E-3</v>
       </c>
       <c r="R42">
-        <v>0.0005734871367876721</v>
+        <v>5.7348713678767214E-4</v>
       </c>
       <c r="S42">
-        <v>7.289779026006238E-07</v>
+        <v>7.2897790260062378E-7</v>
       </c>
       <c r="T42">
-        <v>0.0173083155010322</v>
+        <v>1.73083155010322E-2</v>
       </c>
       <c r="U42">
-        <v>0.0003164076533418879</v>
+        <v>3.1640765334188791E-4</v>
       </c>
       <c r="V42">
-        <v>2.903143469539398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>2.9031434695393981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.157902955223342E-06</v>
+        <v>4.1579029552233417E-6</v>
       </c>
       <c r="C43">
-        <v>0.06244651091386574</v>
+        <v>6.2446510913865737E-2</v>
       </c>
       <c r="D43">
-        <v>0.0003918124187396062</v>
+        <v>3.918124187396062E-4</v>
       </c>
       <c r="E43">
-        <v>0.06718631892839989</v>
+        <v>6.7186318928399894E-2</v>
       </c>
       <c r="F43">
         <v>3.599311279192166</v>
       </c>
       <c r="K43">
-        <v>7.330838266594952</v>
+        <v>7.3308382665949523</v>
       </c>
       <c r="L43">
-        <v>5.666958508133947</v>
+        <v>7.3299807685449121</v>
       </c>
       <c r="M43">
-        <v>7.376560373446024</v>
+        <v>7.3765603734460239</v>
       </c>
       <c r="N43">
-        <v>0.02333122121659443</v>
+        <v>2.3331221216594429E-2</v>
       </c>
       <c r="O43">
-        <v>0.0003586994859548619</v>
+        <v>3.5869948595486188E-4</v>
       </c>
       <c r="P43">
-        <v>0.02463453760268626</v>
+        <v>2.463453760268626E-2</v>
       </c>
       <c r="Q43">
-        <v>0.002062378287622952</v>
+        <v>2.0623782876229521E-3</v>
       </c>
       <c r="R43">
-        <v>0.0005831949021925039</v>
+        <v>5.8319490219250385E-4</v>
       </c>
       <c r="S43">
-        <v>7.395847616241663E-07</v>
+        <v>7.3958476162416627E-7</v>
       </c>
       <c r="T43">
-        <v>0.01759631393912865</v>
+        <v>1.7596313939128649E-2</v>
       </c>
       <c r="U43">
-        <v>0.000325268912591934</v>
+        <v>3.2526891259193402E-4</v>
       </c>
       <c r="V43">
-        <v>2.942529166320022</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>2.9425291663200221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.10374089745716E-06</v>
+        <v>4.1037408974571604E-6</v>
       </c>
       <c r="C44">
-        <v>0.06351641950860928</v>
+        <v>6.3516419508609284E-2</v>
       </c>
       <c r="D44">
-        <v>0.0004038065339549287</v>
+        <v>4.0380653395492871E-4</v>
       </c>
       <c r="E44">
-        <v>0.06834629886898012</v>
+        <v>6.8346298868980124E-2</v>
       </c>
       <c r="F44">
         <v>3.599291451683881</v>
       </c>
       <c r="K44">
-        <v>7.335469227526992</v>
+        <v>7.3354692275269917</v>
       </c>
       <c r="L44">
-        <v>5.678580987412039</v>
+        <v>7.3345786462091533</v>
       </c>
       <c r="M44">
         <v>7.381686743605659</v>
       </c>
       <c r="N44">
-        <v>0.02372729917746752</v>
+        <v>2.372729917746752E-2</v>
       </c>
       <c r="O44">
-        <v>0.0003689753795358701</v>
+        <v>3.6897537953587008E-4</v>
       </c>
       <c r="P44">
-        <v>0.0250237127632908</v>
+        <v>2.5023712763290799E-2</v>
       </c>
       <c r="Q44">
-        <v>0.002073921885784974</v>
+        <v>2.0739218857849739E-3</v>
       </c>
       <c r="R44">
-        <v>0.0005932372352516568</v>
+        <v>5.9323723525165684E-4</v>
       </c>
       <c r="S44">
-        <v>7.507816713124596E-07</v>
+        <v>7.5078167131245963E-7</v>
       </c>
       <c r="T44">
-        <v>0.01789409057751721</v>
+        <v>1.7894090577517209E-2</v>
       </c>
       <c r="U44">
-        <v>0.0003345486708785124</v>
+        <v>3.3454867087851241E-4</v>
       </c>
       <c r="V44">
-        <v>2.983106660770227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>2.9831066607702268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.047819763870983E-06</v>
+        <v>4.047819763870983E-6</v>
       </c>
       <c r="C45">
-        <v>0.06462365833272603</v>
+        <v>6.4623658332726028E-2</v>
       </c>
       <c r="D45">
-        <v>0.0004165310285810571</v>
+        <v>4.165310285810571E-4</v>
       </c>
       <c r="E45">
-        <v>0.06954496603292351</v>
+        <v>6.9544966032923511E-2</v>
       </c>
       <c r="F45">
         <v>3.599271412162687</v>
@@ -2928,2583 +5050,2583 @@
         <v>7.340138324964923</v>
       </c>
       <c r="L45">
-        <v>5.69043614656339</v>
+        <v>7.3392155126026219</v>
       </c>
       <c r="M45">
-        <v>7.38686010631351</v>
+        <v>7.3868601063135104</v>
       </c>
       <c r="N45">
-        <v>0.0241370943318172</v>
+        <v>2.41370943318172E-2</v>
       </c>
       <c r="O45">
-        <v>0.0003797571403568774</v>
+        <v>3.7975714035687742E-4</v>
       </c>
       <c r="P45">
-        <v>0.02542634067342248</v>
+        <v>2.542634067342248E-2</v>
       </c>
       <c r="Q45">
-        <v>0.002086004051411952</v>
+        <v>2.0860040514119522E-3</v>
       </c>
       <c r="R45">
-        <v>0.0006036317344372769</v>
+        <v>6.0363173443727693E-4</v>
       </c>
       <c r="S45">
-        <v>7.62626973063342E-07</v>
+        <v>7.62626973063342E-7</v>
       </c>
       <c r="T45">
-        <v>0.01820215271623017</v>
+        <v>1.8202152716230172E-2</v>
       </c>
       <c r="U45">
-        <v>0.000344274283727537</v>
+        <v>3.4427428372753701E-4</v>
       </c>
       <c r="V45">
-        <v>3.024936668236961</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>3.0249366682369612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.990057446673523E-06</v>
+        <v>3.9900574466735226E-6</v>
       </c>
       <c r="C46">
-        <v>0.0657702141774429</v>
+        <v>6.5770214177442901E-2</v>
       </c>
       <c r="D46">
-        <v>0.0004300533081234406</v>
+        <v>4.3005330812344062E-4</v>
       </c>
       <c r="E46">
-        <v>0.07078419043581996</v>
+        <v>7.078419043581996E-2</v>
       </c>
       <c r="F46">
-        <v>3.59925115312694</v>
+        <v>3.5992511531269402</v>
       </c>
       <c r="K46">
-        <v>7.344850768887047</v>
+        <v>7.3448507688870466</v>
       </c>
       <c r="L46">
-        <v>5.691739849167773</v>
+        <v>7.3438926024635887</v>
       </c>
       <c r="M46">
-        <v>7.386153048642811</v>
+        <v>7.3861530486428109</v>
       </c>
       <c r="N46">
-        <v>0.02456133249595042</v>
+        <v>2.4561332495950421E-2</v>
       </c>
       <c r="O46">
-        <v>0.0003876831101404344</v>
+        <v>3.8768311014043442E-4</v>
       </c>
       <c r="P46">
-        <v>0.02584313239881552</v>
+        <v>2.584313239881552E-2</v>
       </c>
       <c r="Q46">
-        <v>0.00212353111446906</v>
+        <v>2.1235311144690602E-3</v>
       </c>
       <c r="R46">
-        <v>0.0006143972542134237</v>
+        <v>6.1439725421342367E-4</v>
       </c>
       <c r="S46">
-        <v>6.079057444004257E-07</v>
+        <v>6.0790574440042574E-7</v>
       </c>
       <c r="T46">
-        <v>0.01852104340252486</v>
+        <v>1.8521043402524862E-2</v>
       </c>
       <c r="U46">
-        <v>0.0003512393027510164</v>
+        <v>3.5123930275101641E-4</v>
       </c>
       <c r="V46">
-        <v>3.067076161628239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>3.0670761616282389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.930367107889451E-06</v>
+        <v>3.9303671078894514E-6</v>
       </c>
       <c r="C47">
-        <v>0.06695821710233961</v>
+        <v>6.6958217102339609E-2</v>
       </c>
       <c r="D47">
-        <v>0.0004444492219316972</v>
+        <v>4.4444922193169722E-4</v>
       </c>
       <c r="E47">
-        <v>0.07206595816032456</v>
+        <v>7.2065958160324559E-2</v>
       </c>
       <c r="F47">
-        <v>3.599230666655694</v>
+        <v>3.5992306666556941</v>
       </c>
       <c r="K47">
-        <v>7.349694576792277</v>
+        <v>7.3496945767922766</v>
       </c>
       <c r="L47">
-        <v>5.704127514379361</v>
+        <v>7.3487037115909892</v>
       </c>
       <c r="M47">
-        <v>7.391457895875524</v>
+        <v>7.3914578958755239</v>
       </c>
       <c r="N47">
-        <v>0.02500085339387424</v>
+        <v>2.5000853393874239E-2</v>
       </c>
       <c r="O47">
-        <v>0.0003995216749052055</v>
+        <v>3.9952167490520552E-4</v>
       </c>
       <c r="P47">
-        <v>0.02627439787671273</v>
+        <v>2.6274397876712732E-2</v>
       </c>
       <c r="Q47">
-        <v>0.002136751388298105</v>
+        <v>2.1367513882981051E-3</v>
       </c>
       <c r="R47">
-        <v>0.0006255570605492241</v>
+        <v>6.2555706054922406E-4</v>
       </c>
       <c r="S47">
-        <v>6.152097953203993E-07</v>
+        <v>6.1520979532039933E-7</v>
       </c>
       <c r="T47">
-        <v>0.0188514034770662</v>
+        <v>1.8851403477066202E-2</v>
       </c>
       <c r="U47">
-        <v>0.0003618837158989028</v>
+        <v>3.6188371589890279E-4</v>
       </c>
       <c r="V47">
-        <v>3.110625652537616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>3.1106256525376161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.302544635662166E-06</v>
+        <v>5.3025446356621662E-6</v>
       </c>
       <c r="C48">
-        <v>0.06818995354456939</v>
+        <v>6.8189953544569387E-2</v>
       </c>
       <c r="D48">
-        <v>0.000345689828966756</v>
+        <v>3.4568982896675601E-4</v>
       </c>
       <c r="E48">
-        <v>0.07194864874266377</v>
+        <v>7.1948648742663768E-2</v>
       </c>
       <c r="F48">
-        <v>4.599230666655694</v>
+        <v>4.5992306666556937</v>
       </c>
       <c r="K48">
-        <v>7.354586252712948</v>
+        <v>7.3545862527129477</v>
       </c>
       <c r="L48">
-        <v>5.663317268184934</v>
+        <v>7.3535617864343976</v>
       </c>
       <c r="M48">
-        <v>7.395111520943334</v>
+        <v>7.3951115209433338</v>
       </c>
       <c r="N48">
-        <v>0.02545643361089218</v>
+        <v>2.5456433610892181E-2</v>
       </c>
       <c r="O48">
-        <v>0.0003582892407461344</v>
+        <v>3.5828924074613442E-4</v>
       </c>
       <c r="P48">
-        <v>0.02672139133020189</v>
+        <v>2.6721391330201891E-2</v>
       </c>
       <c r="Q48">
-        <v>0.002075330432841887</v>
+        <v>2.0753304328418871E-3</v>
       </c>
       <c r="R48">
-        <v>0.0006371300577854075</v>
+        <v>6.371300577854075E-4</v>
       </c>
       <c r="S48">
-        <v>5.89228388851007E-07</v>
+        <v>5.8922838885100698E-7</v>
       </c>
       <c r="T48">
-        <v>0.01919380199116189</v>
+        <v>1.9193801991161889E-2</v>
       </c>
       <c r="U48">
-        <v>0.000330286700412359</v>
+        <v>3.3028670041235903E-4</v>
       </c>
       <c r="V48">
-        <v>3.142902701621444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>3.1429027016214439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.24575335366879E-06</v>
+        <v>5.2457533536687896E-6</v>
       </c>
       <c r="C49">
-        <v>0.06947003399203358</v>
+        <v>6.9470033992033581E-2</v>
       </c>
       <c r="D49">
-        <v>0.0003560795669189508</v>
+        <v>3.5607956691895078E-4</v>
       </c>
       <c r="E49">
-        <v>0.07332114137699772</v>
+        <v>7.3321141376997717E-2</v>
       </c>
       <c r="F49">
-        <v>4.599230666655694</v>
+        <v>4.5992306666556937</v>
       </c>
       <c r="K49">
-        <v>7.359459979858594</v>
+        <v>7.3594599798585936</v>
       </c>
       <c r="L49">
-        <v>5.675493741587855</v>
+        <v>7.3583918639812698</v>
       </c>
       <c r="M49">
-        <v>7.400665715491362</v>
+        <v>7.4006657154913622</v>
       </c>
       <c r="N49">
-        <v>0.02592998350466852</v>
+        <v>2.5929983504668519E-2</v>
       </c>
       <c r="O49">
-        <v>0.0003690421188573272</v>
+        <v>3.6904211885732717E-4</v>
       </c>
       <c r="P49">
-        <v>0.02718641134713321</v>
+        <v>2.7186411347133212E-2</v>
       </c>
       <c r="Q49">
-        <v>0.002087409386614629</v>
+        <v>2.0874093866146289E-3</v>
       </c>
       <c r="R49">
-        <v>0.0006491402621136445</v>
+        <v>6.4914026211364446E-4</v>
       </c>
       <c r="S49">
-        <v>5.983546053194697E-07</v>
+        <v>5.9835460531946974E-7</v>
       </c>
       <c r="T49">
-        <v>0.01954971737400623</v>
+        <v>1.954971737400623E-2</v>
       </c>
       <c r="U49">
-        <v>0.0003402185008288809</v>
+        <v>3.402185008288809E-4</v>
       </c>
       <c r="V49">
-        <v>3.176733924819194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>3.1767339248191941</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.186861224100993E-06</v>
+        <v>5.1868612241009928E-6</v>
       </c>
       <c r="C50">
-        <v>0.07079914850020887</v>
+        <v>7.0799148500208867E-2</v>
       </c>
       <c r="D50">
-        <v>0.0003670979966378705</v>
+        <v>3.6709799663787052E-4</v>
       </c>
       <c r="E50">
-        <v>0.07474547159843971</v>
+        <v>7.4745471598439708E-2</v>
       </c>
       <c r="F50">
-        <v>4.599230666655694</v>
+        <v>4.5992306666556937</v>
       </c>
       <c r="K50">
-        <v>7.364378284348375</v>
+        <v>7.3643782843483754</v>
       </c>
       <c r="L50">
-        <v>5.687872286150263</v>
+        <v>7.3632675348716754</v>
       </c>
       <c r="M50">
-        <v>7.406261131083263</v>
+        <v>7.4062611310832631</v>
       </c>
       <c r="N50">
-        <v>0.02642154006978028</v>
+        <v>2.6421540069780279E-2</v>
       </c>
       <c r="O50">
-        <v>0.0003803233285929631</v>
+        <v>3.8032332859296313E-4</v>
       </c>
       <c r="P50">
-        <v>0.02766908446175857</v>
+        <v>2.7669084461758569E-2</v>
       </c>
       <c r="Q50">
-        <v>0.002100147241890276</v>
+        <v>2.1001472418902762E-3</v>
       </c>
       <c r="R50">
-        <v>0.0006616122218734198</v>
+        <v>6.6161222187341982E-4</v>
       </c>
       <c r="S50">
-        <v>6.065462998824731E-07</v>
+        <v>6.0654629988247308E-7</v>
       </c>
       <c r="T50">
-        <v>0.01991913081387502</v>
+        <v>1.991913081387502E-2</v>
       </c>
       <c r="U50">
-        <v>0.0003506343541502751</v>
+        <v>3.5063435415027508E-4</v>
       </c>
       <c r="V50">
-        <v>3.212162578108588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>3.2121625781085879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.125752945850954E-06</v>
+        <v>5.1257529458509539E-6</v>
       </c>
       <c r="C51">
-        <v>0.07218016909831811</v>
+        <v>7.2180169098318106E-2</v>
       </c>
       <c r="D51">
-        <v>0.0003788030957474426</v>
+        <v>3.7880309574744262E-4</v>
       </c>
       <c r="E51">
-        <v>0.07622454856156444</v>
+        <v>7.6224548561564437E-2</v>
       </c>
       <c r="F51">
-        <v>4.599230666655694</v>
+        <v>4.5992306666556937</v>
       </c>
       <c r="K51">
-        <v>7.369337665515224</v>
+        <v>7.3693376655152241</v>
       </c>
       <c r="L51">
-        <v>5.686831203032567</v>
+        <v>7.3681837297570549</v>
       </c>
       <c r="M51">
-        <v>7.404769610381985</v>
+        <v>7.4047696103819849</v>
       </c>
       <c r="N51">
-        <v>0.02693215216274474</v>
+        <v>2.6932152162744739E-2</v>
       </c>
       <c r="O51">
-        <v>0.0003876790900666024</v>
+        <v>3.8767909006660238E-4</v>
       </c>
       <c r="P51">
-        <v>0.02817043617195206</v>
+        <v>2.817043617195206E-2</v>
       </c>
       <c r="Q51">
-        <v>0.00214428939390941</v>
+        <v>2.14428939390941E-3</v>
       </c>
       <c r="R51">
-        <v>0.000674573117472901</v>
+        <v>6.7457311747290102E-4</v>
       </c>
       <c r="S51">
-        <v>4.553979515507941E-07</v>
+        <v>4.5539795155079413E-7</v>
       </c>
       <c r="T51">
-        <v>0.02030282682288923</v>
+        <v>2.0302826822889228E-2</v>
       </c>
       <c r="U51">
-        <v>0.0003572256173028041</v>
+        <v>3.5722561730280411E-4</v>
       </c>
       <c r="V51">
         <v>3.248021089027008</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.062304907224659E-06</v>
+        <v>5.0623049072246593E-6</v>
       </c>
       <c r="C52">
-        <v>0.07361619641836951</v>
+        <v>7.3616196418369514E-2</v>
       </c>
       <c r="D52">
-        <v>0.0003912601268833052</v>
+        <v>3.9126012688330518E-4</v>
       </c>
       <c r="E52">
-        <v>0.07776149685823872</v>
+        <v>7.7761496858238716E-2</v>
       </c>
       <c r="F52">
-        <v>4.599230666655694</v>
+        <v>4.5992306666556937</v>
       </c>
       <c r="K52">
-        <v>7.374463834387559</v>
+        <v>7.3744638343875586</v>
       </c>
       <c r="L52">
-        <v>5.699806639731823</v>
+        <v>7.3732678064911017</v>
       </c>
       <c r="M52">
-        <v>7.410559445241279</v>
+        <v>7.4105594452412786</v>
       </c>
       <c r="N52">
-        <v>0.0274630416241983</v>
+        <v>2.7463041624198301E-2</v>
       </c>
       <c r="O52">
-        <v>0.0004000779894598109</v>
+        <v>4.0007798945981089E-4</v>
       </c>
       <c r="P52">
-        <v>0.02869095910751292</v>
+        <v>2.8690959107512921E-2</v>
       </c>
       <c r="Q52">
-        <v>0.002158135355375007</v>
+        <v>2.158135355375007E-3</v>
       </c>
       <c r="R52">
-        <v>0.0006880554718633281</v>
+        <v>6.8805547186332806E-4</v>
       </c>
       <c r="S52">
-        <v>4.591888054791521E-07</v>
+        <v>4.5918880547915212E-7</v>
       </c>
       <c r="T52">
-        <v>0.02070173884700096</v>
+        <v>2.070173884700096E-2</v>
       </c>
       <c r="U52">
-        <v>0.0003686464696902102</v>
+        <v>3.6864646969021021E-4</v>
       </c>
       <c r="V52">
         <v>3.285610983101567</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.995053156052357E-06</v>
+        <v>4.9950531560523574E-6</v>
       </c>
       <c r="C53">
-        <v>0.0751105828732978</v>
+        <v>7.5110582873297804E-2</v>
       </c>
       <c r="D53">
-        <v>0.0004046441184870639</v>
+        <v>4.0464411848706392E-4</v>
       </c>
       <c r="E53">
-        <v>0.07935850666250395</v>
+        <v>7.935850666250395E-2</v>
       </c>
       <c r="F53">
-        <v>4.598468102701801</v>
+        <v>4.5984681027018013</v>
       </c>
       <c r="K53">
-        <v>7.379636580831907</v>
+        <v>7.3796365808319067</v>
       </c>
       <c r="L53">
-        <v>5.713085967004547</v>
+        <v>7.3783980174545976</v>
       </c>
       <c r="M53">
-        <v>7.416410650649159</v>
+        <v>7.4164106506491594</v>
       </c>
       <c r="N53">
-        <v>0.02801534700449909</v>
+        <v>2.8015347004499092E-2</v>
       </c>
       <c r="O53">
-        <v>0.0004131732890624883</v>
+        <v>4.1317328906248832E-4</v>
       </c>
       <c r="P53">
-        <v>0.02923244530653614</v>
+        <v>2.9232445306536139E-2</v>
       </c>
       <c r="Q53">
-        <v>0.002172713081321444</v>
+        <v>2.1727130813214441E-3</v>
       </c>
       <c r="R53">
-        <v>0.0007020880490685902</v>
+        <v>7.0208804906859025E-4</v>
       </c>
       <c r="S53">
-        <v>4.633544076394944E-07</v>
+        <v>4.6335440763949439E-7</v>
       </c>
       <c r="T53">
-        <v>0.02111669991592567</v>
+        <v>2.1116699915925671E-2</v>
       </c>
       <c r="U53">
-        <v>0.0003806972486403131</v>
+        <v>3.8069724864031308E-4</v>
       </c>
       <c r="V53">
-        <v>3.325002101709218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>3.3250021017092179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.926486883411278E-06</v>
+        <v>4.9264868834112778E-6</v>
       </c>
       <c r="C54">
-        <v>0.07666695659735635</v>
+        <v>7.6666956597356353E-2</v>
       </c>
       <c r="D54">
-        <v>0.0004188434790172941</v>
+        <v>4.1884347901729411E-4</v>
       </c>
       <c r="E54">
-        <v>0.08102145697827688</v>
+        <v>8.1021456978276882E-2</v>
       </c>
       <c r="F54">
-        <v>4.598449119524187</v>
+        <v>4.5984491195241866</v>
       </c>
       <c r="K54">
-        <v>7.384856252060185</v>
+        <v>7.3848562520601853</v>
       </c>
       <c r="L54">
-        <v>5.726646906795555</v>
+        <v>7.3835731742694897</v>
       </c>
       <c r="M54">
-        <v>7.422341278688441</v>
+        <v>7.4223412786884406</v>
       </c>
       <c r="N54">
-        <v>0.02859039229023735</v>
+        <v>2.8590392290237351E-2</v>
       </c>
       <c r="O54">
-        <v>0.0004269723078177419</v>
+        <v>4.2697230781774191E-4</v>
       </c>
       <c r="P54">
-        <v>0.02979618972789478</v>
+        <v>2.979618972789478E-2</v>
       </c>
       <c r="Q54">
-        <v>0.002187981615886414</v>
+        <v>2.1879816158864138E-3</v>
       </c>
       <c r="R54">
-        <v>0.00071670523020736</v>
+        <v>7.1670523020736E-4</v>
       </c>
       <c r="S54">
-        <v>4.676953683112516E-07</v>
+        <v>4.6769536831125159E-7</v>
       </c>
       <c r="T54">
-        <v>0.02154869997149412</v>
+        <v>2.1548699971494119E-2</v>
       </c>
       <c r="U54">
-        <v>0.000393389080971375</v>
+        <v>3.9338908097137502E-4</v>
       </c>
       <c r="V54">
         <v>3.366261956648477</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.855152411302434E-06</v>
+        <v>4.8551524113024339E-6</v>
       </c>
       <c r="C55">
-        <v>0.07828925687646995</v>
+        <v>7.8289256876469954E-2</v>
       </c>
       <c r="D55">
-        <v>0.0004340479484145342</v>
+        <v>4.340479484145342E-4</v>
       </c>
       <c r="E55">
-        <v>0.08275314729863721</v>
+        <v>8.2753147298637211E-2</v>
       </c>
       <c r="F55">
-        <v>4.598429872553624</v>
+        <v>4.5984298725536243</v>
       </c>
       <c r="K55">
-        <v>7.390123096049839</v>
+        <v>7.3901230960498392</v>
       </c>
       <c r="L55">
-        <v>5.740527631639273</v>
+        <v>7.3887952493547493</v>
       </c>
       <c r="M55">
         <v>7.428345089703364</v>
       </c>
       <c r="N55">
-        <v>0.02918961399199096</v>
+        <v>2.9189613991990961E-2</v>
       </c>
       <c r="O55">
-        <v>0.000441560910982158</v>
+        <v>4.41560910982158E-4</v>
       </c>
       <c r="P55">
-        <v>0.030383598411129</v>
+        <v>3.0383598411129E-2</v>
       </c>
       <c r="Q55">
-        <v>0.002204042628167026</v>
+        <v>2.204042628167026E-3</v>
       </c>
       <c r="R55">
-        <v>0.0007319443266932973</v>
+        <v>7.319443266932973E-4</v>
       </c>
       <c r="S55">
-        <v>4.72363436329325E-07</v>
+        <v>4.7236343632932498E-7</v>
       </c>
       <c r="T55">
-        <v>0.02199881296916481</v>
+        <v>2.199881296916481E-2</v>
       </c>
       <c r="U55">
-        <v>0.000406792851143374</v>
+        <v>4.0679285114337399E-4</v>
       </c>
       <c r="V55">
         <v>3.409471450735909</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.780884837384275E-06</v>
+        <v>4.7808848373842753E-6</v>
       </c>
       <c r="C56">
-        <v>0.0799817614183842</v>
+        <v>7.9981761418384201E-2</v>
       </c>
       <c r="D56">
-        <v>0.0004503663935682249</v>
+        <v>4.5036639356822489E-4</v>
       </c>
       <c r="E56">
-        <v>0.08455778288879343</v>
+        <v>8.4557782888793426E-2</v>
       </c>
       <c r="F56">
-        <v>4.598410350240369</v>
+        <v>4.5984103502403686</v>
       </c>
       <c r="K56">
         <v>7.395438363886516</v>
       </c>
       <c r="L56">
-        <v>5.754748621586421</v>
+        <v>7.3940673138521902</v>
       </c>
       <c r="M56">
-        <v>7.434425370706545</v>
+        <v>7.4344253707065446</v>
       </c>
       <c r="N56">
-        <v>0.02981457166766507</v>
+        <v>2.9814571667665071E-2</v>
       </c>
       <c r="O56">
-        <v>0.0004570075974554882</v>
+        <v>4.5700759745548818E-4</v>
       </c>
       <c r="P56">
-        <v>0.03099619744988905</v>
+        <v>3.0996197449889049E-2</v>
       </c>
       <c r="Q56">
-        <v>0.00222095336041845</v>
+        <v>2.2209533604184502E-3</v>
       </c>
       <c r="R56">
-        <v>0.0007478458911119271</v>
+        <v>7.4784589111192711E-4</v>
       </c>
       <c r="S56">
-        <v>4.77393943961578E-07</v>
+        <v>4.7739394396157798E-7</v>
       </c>
       <c r="T56">
-        <v>0.02246820471086093</v>
+        <v>2.2468204710860931E-2</v>
       </c>
       <c r="U56">
-        <v>0.0004209685979124511</v>
+        <v>4.2096859791245108E-4</v>
       </c>
       <c r="V56">
-        <v>3.454720897547099</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>3.4547208975470989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.703506675031597E-06</v>
+        <v>4.7035066750315974E-6</v>
       </c>
       <c r="C57">
-        <v>0.08174912575226902</v>
+        <v>8.1749125752269017E-2</v>
       </c>
       <c r="D57">
-        <v>0.0004679238112763596</v>
+        <v>4.6792381127635959E-4</v>
       </c>
       <c r="E57">
-        <v>0.08643990700442412</v>
+        <v>8.6439907004424124E-2</v>
       </c>
       <c r="F57">
-        <v>4.598390540239477</v>
+        <v>4.5983905402394774</v>
       </c>
       <c r="K57">
-        <v>7.400801010346624</v>
+        <v>7.4008010103466244</v>
       </c>
       <c r="L57">
-        <v>5.769322588012867</v>
+        <v>7.3993835077480608</v>
       </c>
       <c r="M57">
-        <v>7.440580590331629</v>
+        <v>7.4405805903316287</v>
       </c>
       <c r="N57">
-        <v>0.03046696198033639</v>
+        <v>3.0466961980336389E-2</v>
       </c>
       <c r="O57">
-        <v>0.0004733856319190844</v>
+        <v>4.7338563191908438E-4</v>
       </c>
       <c r="P57">
-        <v>0.03163564731854395</v>
+        <v>3.1635647318543951E-2</v>
       </c>
       <c r="Q57">
-        <v>0.002238798737580914</v>
+        <v>2.2387987375809141E-3</v>
       </c>
       <c r="R57">
-        <v>0.0007644540799378819</v>
+        <v>7.6445407993788186E-4</v>
       </c>
       <c r="S57">
-        <v>4.828357377167761E-07</v>
+        <v>4.8283573771677611E-7</v>
       </c>
       <c r="T57">
-        <v>0.02295814329114868</v>
+        <v>2.2958143291148678E-2</v>
       </c>
       <c r="U57">
-        <v>0.0004359800956800872</v>
+        <v>4.3598009568008721E-4</v>
       </c>
       <c r="V57">
-        <v>3.502110115815431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>3.5021101158154311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.622826454990861E-06</v>
+        <v>4.6228264549908613E-6</v>
       </c>
       <c r="C58">
-        <v>0.08359642579638248</v>
+        <v>8.3596425796382476E-2</v>
       </c>
       <c r="D58">
-        <v>0.0004868644328170381</v>
+        <v>4.8686443281703812E-4</v>
       </c>
       <c r="E58">
-        <v>0.08840443396487657</v>
+        <v>8.8404433964876572E-2</v>
       </c>
       <c r="F58">
-        <v>4.5983704293375</v>
+        <v>4.5983704293374998</v>
       </c>
       <c r="K58">
-        <v>7.406211155694598</v>
+        <v>7.4062111556945984</v>
       </c>
       <c r="L58">
-        <v>5.784271867846815</v>
+        <v>7.4047506428948227</v>
       </c>
       <c r="M58">
-        <v>7.446812881945881</v>
+        <v>7.4468128819458812</v>
       </c>
       <c r="N58">
-        <v>0.03114863417007315</v>
+        <v>3.1148634170073151E-2</v>
       </c>
       <c r="O58">
-        <v>0.000490779676249244</v>
+        <v>4.9077967624924399E-4</v>
       </c>
       <c r="P58">
-        <v>0.03230375751356585</v>
+        <v>3.2303757513565852E-2</v>
       </c>
       <c r="Q58">
-        <v>0.002257656534745561</v>
+        <v>2.257656534745561E-3</v>
       </c>
       <c r="R58">
-        <v>0.0007818170627606129</v>
+        <v>7.8181706276061287E-4</v>
       </c>
       <c r="S58">
-        <v>4.887371681317781E-07</v>
+        <v>4.8873716813177812E-7</v>
       </c>
       <c r="T58">
-        <v>0.02347001063650023</v>
+        <v>2.347001063650023E-2</v>
       </c>
       <c r="U58">
-        <v>0.0004519009444359347</v>
+        <v>4.5190094443593471E-4</v>
       </c>
       <c r="V58">
         <v>3.551750010844843</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.538637609178028E-06</v>
+        <v>4.5386376091780281E-6</v>
       </c>
       <c r="C59">
-        <v>0.08552920629320958</v>
+        <v>8.5529206293209578E-2</v>
       </c>
       <c r="D59">
-        <v>0.0005073555259580473</v>
+        <v>5.0735552595804732E-4</v>
       </c>
       <c r="E59">
-        <v>0.09045668643757887</v>
+        <v>9.045668643757887E-2</v>
       </c>
       <c r="F59">
-        <v>4.598350003368196</v>
+        <v>4.5983500033681963</v>
       </c>
       <c r="K59">
-        <v>7.411671500880993</v>
+        <v>7.4116715008809928</v>
       </c>
       <c r="L59">
-        <v>5.799622769131573</v>
+        <v>7.4101634183466487</v>
       </c>
       <c r="M59">
-        <v>7.453125364776209</v>
+        <v>7.4531253647762092</v>
       </c>
       <c r="N59">
-        <v>0.03186160753039464</v>
+        <v>3.1861607530394638E-2</v>
       </c>
       <c r="O59">
-        <v>0.0005092868945920471</v>
+        <v>5.092868945920471E-4</v>
       </c>
       <c r="P59">
-        <v>0.03300250404795702</v>
+        <v>3.3002504047957022E-2</v>
       </c>
       <c r="Q59">
-        <v>0.002277612200969117</v>
+        <v>2.2776122009691168E-3</v>
       </c>
       <c r="R59">
-        <v>0.0007999874889371824</v>
+        <v>7.9998748893718235E-4</v>
       </c>
       <c r="S59">
-        <v>4.951557027152241E-07</v>
+        <v>4.9515570271522411E-7</v>
       </c>
       <c r="T59">
-        <v>0.02400531551305987</v>
+        <v>2.4005315513059872E-2</v>
       </c>
       <c r="U59">
-        <v>0.0004688153422594786</v>
+        <v>4.688153422594786E-4</v>
       </c>
       <c r="V59">
-        <v>3.603764178940578</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>3.6037641789405779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.450716937173748E-06</v>
+        <v>4.450716937173748E-6</v>
       </c>
       <c r="C60">
-        <v>0.0875535360733822</v>
+        <v>8.7553536073382204E-2</v>
       </c>
       <c r="D60">
-        <v>0.0005295921657191623</v>
+        <v>5.295921657191623E-4</v>
       </c>
       <c r="E60">
-        <v>0.0926024367657505</v>
+        <v>9.2602436765750501E-2</v>
       </c>
       <c r="F60">
-        <v>4.598329247119542</v>
+        <v>4.5983292471195423</v>
       </c>
       <c r="K60">
-        <v>7.417175861599888</v>
+        <v>7.4171758615998877</v>
       </c>
       <c r="L60">
-        <v>5.815391134211923</v>
+        <v>7.4156238967973724</v>
       </c>
       <c r="M60">
-        <v>7.459514801319244</v>
+        <v>7.4595148013192443</v>
       </c>
       <c r="N60">
-        <v>0.0326080913550566</v>
+        <v>3.2608091355056601E-2</v>
       </c>
       <c r="O60">
-        <v>0.0005290119325190107</v>
+        <v>5.2901193251901071E-4</v>
       </c>
       <c r="P60">
-        <v>0.03373404909193291</v>
+        <v>3.3734049091932908E-2</v>
       </c>
       <c r="Q60">
-        <v>0.002298791882710581</v>
+        <v>2.298791882710581E-3</v>
       </c>
       <c r="R60">
-        <v>0.0008190230206808599</v>
+        <v>8.1902302068085991E-4</v>
       </c>
       <c r="S60">
-        <v>5.021686316767974E-07</v>
+        <v>5.0216863167679739E-7</v>
       </c>
       <c r="T60">
-        <v>0.0245657083742694</v>
+        <v>2.4565708374269399E-2</v>
       </c>
       <c r="U60">
-        <v>0.0004868130734638815</v>
+        <v>4.8681307346388152E-4</v>
       </c>
       <c r="V60">
-        <v>3.658289158489085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>3.6582891584890849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.358823145732299E-06</v>
+        <v>4.358823145732299E-6</v>
       </c>
       <c r="C61">
-        <v>0.08967607129064228</v>
+        <v>8.9676071290642284E-2</v>
       </c>
       <c r="D61">
-        <v>0.0005538032088830723</v>
+        <v>5.5380320888307225E-4</v>
       </c>
       <c r="E61">
-        <v>0.09484795340655315</v>
+        <v>9.4847953406553151E-2</v>
       </c>
       <c r="F61">
-        <v>4.598308144227628</v>
+        <v>4.5983081442276283</v>
       </c>
       <c r="K61">
-        <v>7.422730121829338</v>
+        <v>7.4227301218293382</v>
       </c>
       <c r="L61">
-        <v>5.831616771069745</v>
+        <v>7.4211333256825442</v>
       </c>
       <c r="M61">
-        <v>7.465988087144513</v>
+        <v>7.4659880871445132</v>
       </c>
       <c r="N61">
-        <v>0.03339050792633801</v>
+        <v>3.3390507926338013E-2</v>
       </c>
       <c r="O61">
-        <v>0.000550082491321389</v>
+        <v>5.5008249132138898E-4</v>
       </c>
       <c r="P61">
-        <v>0.03450076268240175</v>
+        <v>3.450076268240175E-2</v>
       </c>
       <c r="Q61">
-        <v>0.002321288796177938</v>
+        <v>2.3212887961779382E-3</v>
       </c>
       <c r="R61">
-        <v>0.0008389869439015717</v>
+        <v>8.3898694390157171E-4</v>
       </c>
       <c r="S61">
-        <v>5.098487811827568E-07</v>
+        <v>5.0984878118275678E-7</v>
       </c>
       <c r="T61">
-        <v>0.02515299850355734</v>
+        <v>2.5152998503557341E-2</v>
       </c>
       <c r="U61">
-        <v>0.0005060041933596463</v>
+        <v>5.0600419335964633E-4</v>
       </c>
       <c r="V61">
-        <v>3.715478085066967</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>3.7154780850669669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.262695134180389E-06</v>
+        <v>4.2626951341803886E-6</v>
       </c>
       <c r="C62">
-        <v>0.09190412799268627</v>
+        <v>9.1904127992686269E-2</v>
       </c>
       <c r="D62">
-        <v>0.0005802588847006896</v>
+        <v>5.8025888470068961E-4</v>
       </c>
       <c r="E62">
-        <v>0.09720005280573857</v>
+        <v>9.7200052805738568E-2</v>
       </c>
       <c r="F62">
-        <v>4.598286677058309</v>
+        <v>4.5982866770583088</v>
       </c>
       <c r="K62">
-        <v>7.428329678195795</v>
+        <v>7.4283296781957953</v>
       </c>
       <c r="L62">
-        <v>5.848320953017135</v>
+        <v>7.4266887624692837</v>
       </c>
       <c r="M62">
-        <v>7.472541039553058</v>
+        <v>7.4725410395530583</v>
       </c>
       <c r="N62">
-        <v>0.03421151856221342</v>
+        <v>3.4211518562213418E-2</v>
       </c>
       <c r="O62">
-        <v>0.0005726364654224695</v>
+        <v>5.7263646542246951E-4</v>
       </c>
       <c r="P62">
-        <v>0.03530524952955735</v>
+        <v>3.5305249529557353E-2</v>
       </c>
       <c r="Q62">
-        <v>0.002345268043349304</v>
+        <v>2.3452680433493039E-3</v>
       </c>
       <c r="R62">
-        <v>0.0008599488712795814</v>
+        <v>8.5994887127958139E-4</v>
       </c>
       <c r="S62">
-        <v>5.182984202324641E-07</v>
+        <v>5.1829842023246413E-7</v>
       </c>
       <c r="T62">
-        <v>0.02576917336131228</v>
+        <v>2.5769173361312282E-2</v>
       </c>
       <c r="U62">
-        <v>0.0005265058197510221</v>
+        <v>5.2650581975102208E-4</v>
       </c>
       <c r="V62">
-        <v>3.775500953189338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>3.7755009531893382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.162050206472538E-06</v>
+        <v>4.162050206472538E-6</v>
       </c>
       <c r="C63">
-        <v>0.0942457656621218</v>
+        <v>9.4245765662121797E-2</v>
       </c>
       <c r="D63">
-        <v>0.0006092805057548163</v>
+        <v>6.092805057548163E-4</v>
       </c>
       <c r="E63">
-        <v>0.09966615764546286</v>
+        <v>9.9666157645462855E-2</v>
       </c>
       <c r="F63">
-        <v>4.598264826571654</v>
+        <v>4.5982648265716541</v>
       </c>
       <c r="K63">
-        <v>7.433975203130387</v>
+        <v>7.4339752031303874</v>
       </c>
       <c r="L63">
-        <v>5.865546132801324</v>
+        <v>7.4322927055940449</v>
       </c>
       <c r="M63">
-        <v>7.479178188775072</v>
+        <v>7.4791781887750721</v>
       </c>
       <c r="N63">
-        <v>0.03507405400059269</v>
+        <v>3.5074054000592693E-2</v>
       </c>
       <c r="O63">
-        <v>0.0005968399346469457</v>
+        <v>5.9683993464694572E-4</v>
       </c>
       <c r="P63">
-        <v>0.03615037725997294</v>
+        <v>3.6150377259972943E-2</v>
       </c>
       <c r="Q63">
-        <v>0.002370872770757518</v>
+        <v>2.3708727707575181E-3</v>
       </c>
       <c r="R63">
-        <v>0.0008819855526349494</v>
+        <v>8.8198555263494936E-4</v>
       </c>
       <c r="S63">
-        <v>5.276298867793467E-07</v>
+        <v>5.2762988677934668E-7</v>
       </c>
       <c r="T63">
-        <v>0.02641642124699334</v>
+        <v>2.6416421246993341E-2</v>
       </c>
       <c r="U63">
-        <v>0.0005484593913662993</v>
+        <v>5.4845939136629934E-4</v>
       </c>
       <c r="V63">
-        <v>3.838548752854561</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>3.8385487528545612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.056582080403956E-06</v>
+        <v>4.0565820804039564E-6</v>
       </c>
       <c r="C64">
-        <v>0.09670988369255251</v>
+        <v>9.6709883692552512E-2</v>
       </c>
       <c r="D64">
-        <v>0.0006412530407219698</v>
+        <v>6.4125304072196979E-4</v>
       </c>
       <c r="E64">
-        <v>0.1022543621812411</v>
+        <v>0.10225436218124111</v>
       </c>
       <c r="F64">
         <v>4.598242572169946</v>
       </c>
       <c r="K64">
-        <v>7.439669294638313</v>
+        <v>7.4396692946383132</v>
       </c>
       <c r="L64">
-        <v>5.883333806381705</v>
+        <v>7.4379433136732276</v>
       </c>
       <c r="M64">
-        <v>7.485900150136919</v>
+        <v>7.4859001501369189</v>
       </c>
       <c r="N64">
-        <v>0.03598134910759126</v>
+        <v>3.5981349107591258E-2</v>
       </c>
       <c r="O64">
-        <v>0.0006228835307682424</v>
+        <v>6.2288353076824237E-4</v>
       </c>
       <c r="P64">
-        <v>0.0370393115886365</v>
+        <v>3.7039311588636499E-2</v>
       </c>
       <c r="Q64">
-        <v>0.002398290905334616</v>
+        <v>2.3982909053346158E-3</v>
       </c>
       <c r="R64">
-        <v>0.0009051818137599012</v>
+        <v>9.0518181375990117E-4</v>
       </c>
       <c r="S64">
-        <v>5.379776169761124E-07</v>
+        <v>5.3797761697611239E-7</v>
       </c>
       <c r="T64">
-        <v>0.02709715708529931</v>
+        <v>2.7097157085299309E-2</v>
       </c>
       <c r="U64">
-        <v>0.0005720260457307363</v>
+        <v>5.7202604573073626E-4</v>
       </c>
       <c r="V64">
         <v>3.90483618418597</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.945958714726686E-06</v>
+        <v>3.9459587147266856E-6</v>
       </c>
       <c r="C65">
-        <v>0.09930633316962902</v>
+        <v>9.9306333169629016E-2</v>
       </c>
       <c r="D65">
-        <v>0.00067664157501824</v>
+        <v>6.7664157501824002E-4</v>
       </c>
       <c r="E65">
         <v>0.1049735056253938</v>
       </c>
       <c r="F65">
-        <v>4.598219891522796</v>
+        <v>4.5982198915227963</v>
       </c>
       <c r="K65">
-        <v>7.445405661459134</v>
+        <v>7.4454056614591337</v>
       </c>
       <c r="L65">
-        <v>5.901714758646414</v>
+        <v>7.4436418518093657</v>
       </c>
       <c r="M65">
-        <v>7.492699861654904</v>
+        <v>7.4926998616549039</v>
       </c>
       <c r="N65">
-        <v>0.03693698331237025</v>
+        <v>3.6936983312370247E-2</v>
       </c>
       <c r="O65">
-        <v>0.0006509831493221336</v>
+        <v>6.5098314932213359E-4</v>
       </c>
       <c r="P65">
-        <v>0.0379755553908879</v>
+        <v>3.79755553908879E-2</v>
       </c>
       <c r="Q65">
-        <v>0.002427781531012196</v>
+        <v>2.427781531012196E-3</v>
       </c>
       <c r="R65">
-        <v>0.0009296316471691696</v>
+        <v>9.2963164716916959E-4</v>
       </c>
       <c r="S65">
-        <v>5.495186903187484E-07</v>
+        <v>5.4951869031874837E-7</v>
       </c>
       <c r="T65">
-        <v>0.02781405251880117</v>
+        <v>2.7814052518801171E-2</v>
       </c>
       <c r="U65">
-        <v>0.0005973860725148249</v>
+        <v>5.9738607251482486E-4</v>
       </c>
       <c r="V65">
-        <v>3.974603997901897</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>3.9746039979018968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.829820325251218E-06</v>
+        <v>3.8298203252512182E-6</v>
       </c>
       <c r="C66">
         <v>0.1020460468250349</v>
       </c>
       <c r="D66">
-        <v>0.000716013067618997</v>
+        <v>7.1601306761899703E-4</v>
       </c>
       <c r="E66">
         <v>0.1078332552360842</v>
       </c>
       <c r="F66">
-        <v>4.598196760367374</v>
+        <v>4.5981967603673741</v>
       </c>
       <c r="K66">
-        <v>7.451189970223213</v>
+        <v>7.4511899702232132</v>
       </c>
       <c r="L66">
-        <v>5.920762595691349</v>
+        <v>7.449385462457303</v>
       </c>
       <c r="M66">
-        <v>7.499586619073167</v>
+        <v>7.4995866190731668</v>
       </c>
       <c r="N66">
-        <v>0.03794492776134382</v>
+        <v>3.7944927761343818E-2</v>
       </c>
       <c r="O66">
-        <v>0.0006814109830353992</v>
+        <v>6.814109830353992E-4</v>
       </c>
       <c r="P66">
-        <v>0.03896299355366223</v>
+        <v>3.8962993553662228E-2</v>
       </c>
       <c r="Q66">
-        <v>0.002459562314001952</v>
+        <v>2.4595623140019518E-3</v>
       </c>
       <c r="R66">
-        <v>0.0009554394840713599</v>
+        <v>9.5543948407135991E-4</v>
       </c>
       <c r="S66">
-        <v>5.624431435772316E-07</v>
+        <v>5.6244314357723158E-7</v>
       </c>
       <c r="T66">
-        <v>0.02857007103119801</v>
+        <v>2.8570071031198008E-2</v>
       </c>
       <c r="U66">
-        <v>0.0006247681809284807</v>
+        <v>6.2476818092848069E-4</v>
       </c>
       <c r="V66">
-        <v>4.048127428441697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>4.0481274284416973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.707776758738548E-06</v>
+        <v>3.707776758738548E-6</v>
       </c>
       <c r="C67">
         <v>0.1049411906466753</v>
       </c>
       <c r="D67">
-        <v>0.0007600656676499052</v>
+        <v>7.6006566764990518E-4</v>
       </c>
       <c r="E67">
         <v>0.1108441991687209</v>
       </c>
       <c r="F67">
-        <v>4.598173152281811</v>
+        <v>4.5981731522818112</v>
       </c>
       <c r="K67">
-        <v>7.457014602414041</v>
+        <v>7.4570146024140413</v>
       </c>
       <c r="L67">
-        <v>5.940527501219082</v>
+        <v>7.4551753364080504</v>
       </c>
       <c r="M67">
-        <v>7.506554191786812</v>
+        <v>7.5065541917868117</v>
       </c>
       <c r="N67">
-        <v>0.03900959966929549</v>
+        <v>3.9009599669295493E-2</v>
       </c>
       <c r="O67">
-        <v>0.0007144768874595731</v>
+        <v>7.1447688745957308E-4</v>
       </c>
       <c r="P67">
-        <v>0.04000594873193824</v>
+        <v>4.0005948731938239E-2</v>
       </c>
       <c r="Q67">
-        <v>0.002493981264990508</v>
+        <v>2.493981264990508E-3</v>
       </c>
       <c r="R67">
-        <v>0.000982721685240725</v>
+        <v>9.8272168524072504E-4</v>
       </c>
       <c r="S67">
-        <v>5.770097148799047E-07</v>
+        <v>5.7700971487990473E-7</v>
       </c>
       <c r="T67">
-        <v>0.02936850825549142</v>
+        <v>2.9368508255491421E-2</v>
       </c>
       <c r="U67">
-        <v>0.0006544286239160883</v>
+        <v>6.5442862391608826E-4</v>
       </c>
       <c r="V67">
-        <v>4.125719428763616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>4.1257194287636159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.579405594190165E-06</v>
+        <v>3.579405594190165E-6</v>
       </c>
       <c r="C68">
         <v>0.1080053413813525</v>
       </c>
       <c r="D68">
-        <v>0.0008096685311624916</v>
+        <v>8.0966853116249164E-4</v>
       </c>
       <c r="E68">
         <v>0.1140179525109577</v>
       </c>
       <c r="F68">
-        <v>4.598149038419765</v>
+        <v>4.5981490384197654</v>
       </c>
       <c r="K68">
-        <v>7.462883146592424</v>
+        <v>7.4628831465924241</v>
       </c>
       <c r="L68">
-        <v>5.961090016486533</v>
+        <v>7.461008039886706</v>
       </c>
       <c r="M68">
-        <v>7.513604395565525</v>
+        <v>7.5136043955655252</v>
       </c>
       <c r="N68">
-        <v>0.04013592680993772</v>
+        <v>4.0135926809937723E-2</v>
       </c>
       <c r="O68">
-        <v>0.0007505643453651447</v>
+        <v>7.5056434536514469E-4</v>
       </c>
       <c r="P68">
-        <v>0.04110924189273082</v>
+        <v>4.1109241892730818E-2</v>
       </c>
       <c r="Q68">
-        <v>0.002531409213163714</v>
+        <v>2.5314092131637142E-3</v>
       </c>
       <c r="R68">
-        <v>0.001011608293344426</v>
+        <v>1.011608293344426E-3</v>
       </c>
       <c r="S68">
-        <v>5.93523220465235E-07</v>
+        <v>5.9352322046523503E-7</v>
       </c>
       <c r="T68">
-        <v>0.03021304000936129</v>
+        <v>3.021304000936129E-2</v>
       </c>
       <c r="U68">
-        <v>0.0006866843353223229</v>
+        <v>6.8668433532232287E-4</v>
       </c>
       <c r="V68">
-        <v>4.207740545083578</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>4.2077405450835776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.444249755231251E-06</v>
+        <v>3.4442497552312512E-6</v>
       </c>
       <c r="C69">
         <v>0.1112536951040856</v>
       </c>
       <c r="D69">
-        <v>0.0008659171106280603</v>
+        <v>8.6591711062806033E-4</v>
       </c>
       <c r="E69">
         <v>0.1173672763423175</v>
       </c>
       <c r="F69">
-        <v>4.598124387207737</v>
+        <v>4.5981243872077373</v>
       </c>
       <c r="K69">
-        <v>7.468789876877291</v>
+        <v>7.4687898768772909</v>
       </c>
       <c r="L69">
-        <v>5.982542006347651</v>
+        <v>7.4668865236391486</v>
       </c>
       <c r="M69">
-        <v>7.520736839531486</v>
+        <v>7.5207368395314864</v>
       </c>
       <c r="N69">
-        <v>0.04132942264219749</v>
+        <v>4.1329422642197487E-2</v>
       </c>
       <c r="O69">
-        <v>0.0007901414645340115</v>
+        <v>7.9014146453401147E-4</v>
       </c>
       <c r="P69">
-        <v>0.04227826712544497</v>
+        <v>4.2278267125444968E-2</v>
       </c>
       <c r="Q69">
-        <v>0.002572314806661786</v>
+        <v>2.572314806661786E-3</v>
       </c>
       <c r="R69">
-        <v>0.001042245104560304</v>
+        <v>1.042245104560304E-3</v>
       </c>
       <c r="S69">
-        <v>6.123769998877037E-07</v>
+        <v>6.1237699988770371E-7</v>
       </c>
       <c r="T69">
-        <v>0.03110777806008974</v>
+        <v>3.1107778060089741E-2</v>
       </c>
       <c r="U69">
-        <v>0.0007219194168053133</v>
+        <v>7.2191941680531326E-4</v>
       </c>
       <c r="V69">
-        <v>4.294609256903808</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>4.2946092569038079</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.301816062692293E-06</v>
+        <v>3.3018160626922931E-6</v>
       </c>
       <c r="C70">
         <v>0.1147033131663811</v>
       </c>
       <c r="D70">
-        <v>0.0009302110161929481</v>
+        <v>9.3021101619294815E-4</v>
       </c>
       <c r="E70">
-        <v>0.1209062139442866</v>
+        <v>0.12090621394428661</v>
       </c>
       <c r="F70">
-        <v>4.598099163991032</v>
+        <v>4.5980991639910318</v>
       </c>
       <c r="K70">
-        <v>7.474738086624138</v>
+        <v>7.4747380866241384</v>
       </c>
       <c r="L70">
-        <v>6.004993698596746</v>
+        <v>7.4728057942310304</v>
       </c>
       <c r="M70">
-        <v>7.527949850685594</v>
+        <v>7.5279498506855944</v>
       </c>
       <c r="N70">
-        <v>0.04259627517899948</v>
+        <v>4.2596275178999478E-2</v>
       </c>
       <c r="O70">
-        <v>0.0008337887571235106</v>
+        <v>8.3378875712351061E-4</v>
       </c>
       <c r="P70">
-        <v>0.04351907813540694</v>
+        <v>4.3519078135406938E-2</v>
       </c>
       <c r="Q70">
-        <v>0.002617283516663816</v>
+        <v>2.6172835166638161E-3</v>
       </c>
       <c r="R70">
-        <v>0.001074796127296567</v>
+        <v>1.074796127296567E-3</v>
       </c>
       <c r="S70">
-        <v>6.34065506090792E-07</v>
+        <v>6.34065506090792E-7</v>
       </c>
       <c r="T70">
-        <v>0.03205733614269238</v>
+        <v>3.2057336142692378E-2</v>
       </c>
       <c r="U70">
-        <v>0.0007606073875783844</v>
+        <v>7.6060738757838438E-4</v>
       </c>
       <c r="V70">
         <v>4.386815935895938</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.151574137458935E-06</v>
+        <v>3.1515741374589349E-6</v>
       </c>
       <c r="C71">
-        <v>0.118373413235742</v>
+        <v>0.11837341323574201</v>
       </c>
       <c r="D71">
-        <v>0.001004366189764498</v>
+        <v>1.004366189764498E-3</v>
       </c>
       <c r="E71">
-        <v>0.1246502454163256</v>
+        <v>0.12465024541632561</v>
       </c>
       <c r="F71">
-        <v>4.598073330622565</v>
+        <v>4.5980733306225652</v>
       </c>
       <c r="K71">
-        <v>7.480721207943716</v>
+        <v>7.4807212079437164</v>
       </c>
       <c r="L71">
-        <v>6.028568198417591</v>
+        <v>7.4787638467868147</v>
       </c>
       <c r="M71">
-        <v>7.535235289111179</v>
+        <v>7.5352352891111787</v>
       </c>
       <c r="N71">
-        <v>0.04394345216035032</v>
+        <v>4.3943452160350317E-2</v>
       </c>
       <c r="O71">
-        <v>0.0008822325179823796</v>
+        <v>8.8223251798237958E-4</v>
       </c>
       <c r="P71">
-        <v>0.04483849086504381</v>
+        <v>4.4838490865043809E-2</v>
       </c>
       <c r="Q71">
-        <v>0.002667089528146246</v>
+        <v>2.667089528146246E-3</v>
       </c>
       <c r="R71">
-        <v>0.001109446516386582</v>
+        <v>1.109446516386582E-3</v>
       </c>
       <c r="S71">
-        <v>6.592460410571861E-07</v>
+        <v>6.5924604105718607E-7</v>
       </c>
       <c r="T71">
-        <v>0.03306690803801864</v>
+        <v>3.3066908038018643E-2</v>
       </c>
       <c r="U71">
-        <v>0.0008033356161746945</v>
+        <v>8.0333561617469446E-4</v>
       </c>
       <c r="V71">
-        <v>4.484940498500618</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>4.4849404985006176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.992957202986676E-06</v>
+        <v>2.992957202986676E-6</v>
       </c>
       <c r="C72">
-        <v>0.1222857148039413</v>
+        <v>0.12228571480394131</v>
       </c>
       <c r="D72">
-        <v>0.001090779902663449</v>
+        <v>1.090779902663449E-3</v>
       </c>
       <c r="E72">
-        <v>0.1286164660960102</v>
+        <v>0.12861646609601021</v>
       </c>
       <c r="F72">
-        <v>4.598046844978968</v>
+        <v>4.5980468449789678</v>
       </c>
       <c r="K72">
-        <v>7.486740828197745</v>
+        <v>7.4867408281977452</v>
       </c>
       <c r="L72">
-        <v>6.053455489361884</v>
+        <v>7.484761906830129</v>
       </c>
       <c r="M72">
-        <v>7.542598908468508</v>
+        <v>7.5425989084685083</v>
       </c>
       <c r="N72">
-        <v>0.04537882614842925</v>
+        <v>4.5378826148429252E-2</v>
       </c>
       <c r="O72">
-        <v>0.0009364280996322382</v>
+        <v>9.3642809963223822E-4</v>
       </c>
       <c r="P72">
-        <v>0.04624420424294039</v>
+        <v>4.6244204242940387E-2</v>
       </c>
       <c r="Q72">
-        <v>0.002722646075750783</v>
+        <v>2.7226460757507828E-3</v>
       </c>
       <c r="R72">
-        <v>0.001146406092064767</v>
+        <v>1.146406092064767E-3</v>
       </c>
       <c r="S72">
-        <v>6.887557551771254E-07</v>
+        <v>6.8875575517712538E-7</v>
       </c>
       <c r="T72">
-        <v>0.03414236045208011</v>
+        <v>3.4142360452080113E-2</v>
       </c>
       <c r="U72">
-        <v>0.0008508757169553523</v>
+        <v>8.5087571695535225E-4</v>
       </c>
       <c r="V72">
-        <v>4.589682458666265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>4.5896824586662648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.00388751739213E-06</v>
+        <v>5.0038875173921297E-6</v>
       </c>
       <c r="C73">
-        <v>0.1264648504901922</v>
+        <v>0.12646485049019221</v>
       </c>
       <c r="D73">
-        <v>0.0006375349008806446</v>
+        <v>6.3753490088064464E-4</v>
       </c>
       <c r="E73">
-        <v>0.1327896862023921</v>
+        <v>0.13278968620239209</v>
       </c>
       <c r="F73">
-        <v>7.198046844978968</v>
+        <v>7.1980468449789683</v>
       </c>
       <c r="K73">
-        <v>7.492793997764671</v>
+        <v>7.4927939977646707</v>
       </c>
       <c r="L73">
-        <v>5.994559439850414</v>
+        <v>7.4908002999143237</v>
       </c>
       <c r="M73">
-        <v>7.549434344379757</v>
+        <v>7.5494343443797574</v>
       </c>
       <c r="N73">
-        <v>0.0469113226328705</v>
+        <v>4.6911322632870497E-2</v>
       </c>
       <c r="O73">
-        <v>0.0008154281512210445</v>
+        <v>8.1542815122104446E-4</v>
       </c>
       <c r="P73">
-        <v>0.04774494762801588</v>
+        <v>4.7744947628015878E-2</v>
       </c>
       <c r="Q73">
-        <v>0.00260657315925051</v>
+        <v>2.60657315925051E-3</v>
       </c>
       <c r="R73">
-        <v>0.001185913586420269</v>
+        <v>1.1859135864202689E-3</v>
       </c>
       <c r="S73">
-        <v>3.997341324896082E-07</v>
+        <v>3.9973413248960818E-7</v>
       </c>
       <c r="T73">
-        <v>0.03529034268432577</v>
+        <v>3.5290342684325772E-2</v>
       </c>
       <c r="U73">
-        <v>0.0007625375462171516</v>
+        <v>7.6253754621715157E-4</v>
       </c>
       <c r="V73">
-        <v>4.674324557296573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>4.6743245572965728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.875882465892256E-06</v>
+        <v>4.8758824658922556E-6</v>
       </c>
       <c r="C74">
-        <v>0.1309586831898105</v>
+        <v>0.13095868318981049</v>
       </c>
       <c r="D74">
-        <v>0.0006775908570962917</v>
+        <v>6.7759085709629167E-4</v>
       </c>
       <c r="E74">
-        <v>0.1375397855200919</v>
+        <v>0.13753978552009191</v>
       </c>
       <c r="F74">
-        <v>7.198046844978968</v>
+        <v>7.1980468449789683</v>
       </c>
       <c r="K74">
-        <v>7.498915349851543</v>
+        <v>7.4989153498515426</v>
       </c>
       <c r="L74">
-        <v>6.017470000161241</v>
+        <v>7.4968749616908283</v>
       </c>
       <c r="M74">
         <v>7.557832237051076</v>
       </c>
       <c r="N74">
-        <v>0.0485576045786437</v>
+        <v>4.85576045786437E-2</v>
       </c>
       <c r="O74">
-        <v>0.0008599893360148393</v>
+        <v>8.5998933601483935E-4</v>
       </c>
       <c r="P74">
-        <v>0.04935703243047178</v>
+        <v>4.9357032430471778E-2</v>
       </c>
       <c r="Q74">
-        <v>0.002649789606037051</v>
+        <v>2.6497896060370509E-3</v>
       </c>
       <c r="R74">
-        <v>0.001228253366859119</v>
+        <v>1.2282533668591189E-3</v>
       </c>
       <c r="S74">
-        <v>4.066984100794667E-07</v>
+        <v>4.0669841007946668E-7</v>
       </c>
       <c r="T74">
-        <v>0.03652347858211537</v>
+        <v>3.6523478582115368E-2</v>
       </c>
       <c r="U74">
-        <v>0.0008038411203730943</v>
+        <v>8.0384112037309432E-4</v>
       </c>
       <c r="V74">
         <v>4.764575151546584</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.738947836945129E-06</v>
+        <v>4.7389478369451286E-6</v>
       </c>
       <c r="C75">
-        <v>0.1357839088317629</v>
+        <v>0.13578390883176289</v>
       </c>
       <c r="D75">
-        <v>0.0007228690008844867</v>
+        <v>7.2286900088448672E-4</v>
       </c>
       <c r="E75">
-        <v>0.1426300143255002</v>
+        <v>0.14263001432550021</v>
       </c>
       <c r="F75">
-        <v>7.198046844978968</v>
+        <v>7.1980468449789683</v>
       </c>
       <c r="K75">
-        <v>7.505051914448684</v>
+        <v>7.5050519144486838</v>
       </c>
       <c r="L75">
-        <v>6.05642022544984</v>
+        <v>7.5029836678319697</v>
       </c>
       <c r="M75">
         <v>7.572683085774802</v>
       </c>
       <c r="N75">
-        <v>0.05032418292096329</v>
+        <v>5.0324182920963287E-2</v>
       </c>
       <c r="O75">
-        <v>0.0009185239531838535</v>
+        <v>9.1852395318385354E-4</v>
       </c>
       <c r="P75">
-        <v>0.05108693031285826</v>
+        <v>5.1086930312858263E-2</v>
       </c>
       <c r="Q75">
-        <v>0.002663473108619567</v>
+        <v>2.6634731086195669E-3</v>
       </c>
       <c r="R75">
-        <v>0.001273729169394268</v>
+        <v>1.2737291693942681E-3</v>
       </c>
       <c r="S75">
-        <v>6.005832806728848E-07</v>
+        <v>6.0058328067288481E-7</v>
       </c>
       <c r="T75">
-        <v>0.03784642811773545</v>
+        <v>3.7846428117735448E-2</v>
       </c>
       <c r="U75">
-        <v>0.0008585549588419108</v>
+        <v>8.585549588419108E-4</v>
       </c>
       <c r="V75">
-        <v>4.86274594042209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>4.8627459404220899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.59215414466273E-06</v>
+        <v>4.59215414466273E-6</v>
       </c>
       <c r="C76">
-        <v>0.1409785642098736</v>
+        <v>0.14097856420987359</v>
       </c>
       <c r="D76">
-        <v>0.0007744436418275075</v>
+        <v>7.7444364182750747E-4</v>
       </c>
       <c r="E76">
-        <v>0.148096920014068</v>
+        <v>0.14809692001406799</v>
       </c>
       <c r="F76">
-        <v>7.198046844978968</v>
+        <v>7.1980468449789683</v>
       </c>
       <c r="K76">
-        <v>7.51100888746735</v>
+        <v>7.5110088874673497</v>
       </c>
       <c r="L76">
-        <v>6.080966288749924</v>
+        <v>7.5089150873258026</v>
       </c>
       <c r="M76">
-        <v>7.581142990871827</v>
+        <v>7.5811429908718271</v>
       </c>
       <c r="N76">
-        <v>0.0522244005735702</v>
+        <v>5.2224400573570202E-2</v>
       </c>
       <c r="O76">
-        <v>0.0009724633986678656</v>
+        <v>9.7246339866786556E-4</v>
       </c>
       <c r="P76">
-        <v>0.05294937097455974</v>
+        <v>5.2949370974559741E-2</v>
       </c>
       <c r="Q76">
-        <v>0.002716004235004981</v>
+        <v>2.7160042350049809E-3</v>
       </c>
       <c r="R76">
-        <v>0.001322695653475561</v>
+        <v>1.322695653475561E-3</v>
       </c>
       <c r="S76">
-        <v>6.207634660255099E-07</v>
+        <v>6.2076346602550986E-7</v>
       </c>
       <c r="T76">
-        <v>0.03926903862384675</v>
+        <v>3.9269038623846751E-2</v>
       </c>
       <c r="U76">
-        <v>0.0009083499189607229</v>
+        <v>9.0834991896072287E-4</v>
       </c>
       <c r="V76">
         <v>4.967601204077245</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.433177929265E-06</v>
+        <v>4.4331779292650002E-6</v>
       </c>
       <c r="C77">
         <v>0.1465867290325954</v>
       </c>
       <c r="D77">
-        <v>0.0008339273863885879</v>
+        <v>8.3392738638858794E-4</v>
       </c>
       <c r="E77">
-        <v>0.153980094906999</v>
+        <v>0.15398009490699899</v>
       </c>
       <c r="F77">
-        <v>7.196941712688487</v>
+        <v>7.1969417126884867</v>
       </c>
       <c r="K77">
-        <v>7.51696731571491</v>
+        <v>7.5169673157149104</v>
       </c>
       <c r="L77">
-        <v>6.106707676148801</v>
+        <v>7.5148526909867943</v>
       </c>
       <c r="M77">
-        <v>7.589744633032706</v>
+        <v>7.5897446330327059</v>
       </c>
       <c r="N77">
-        <v>0.05427447806056629</v>
+        <v>5.4274478060566289E-2</v>
       </c>
       <c r="O77">
-        <v>0.001032250625912523</v>
+        <v>1.0322506259125229E-3</v>
       </c>
       <c r="P77">
-        <v>0.05495870564414193</v>
+        <v>5.4958705644141931E-2</v>
       </c>
       <c r="Q77">
-        <v>0.00277394362298726</v>
+        <v>2.7739436229872599E-3</v>
       </c>
       <c r="R77">
-        <v>0.001375578649075942</v>
+        <v>1.375578649075942E-3</v>
       </c>
       <c r="S77">
-        <v>6.44333559317887E-07</v>
+        <v>6.4433355931788701E-7</v>
       </c>
       <c r="T77">
-        <v>0.04080346617204219</v>
+        <v>4.080346617204219E-2</v>
       </c>
       <c r="U77">
-        <v>0.0009633468370473161</v>
+        <v>9.6334683704731613E-4</v>
       </c>
       <c r="V77">
-        <v>5.07983608999557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>5.0798360899955703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.263328397244587E-06</v>
+        <v>4.2633283972445866E-6</v>
       </c>
       <c r="C78">
         <v>0.1526597624345207</v>
       </c>
       <c r="D78">
-        <v>0.0009027249160582343</v>
+        <v>9.027249160582343E-4</v>
       </c>
       <c r="E78">
-        <v>0.1603315886083244</v>
+        <v>0.16033158860832439</v>
       </c>
       <c r="F78">
-        <v>7.196915418586247</v>
+        <v>7.1969154185862472</v>
       </c>
       <c r="K78">
-        <v>7.522920219341389</v>
+        <v>7.5229202193413887</v>
       </c>
       <c r="L78">
-        <v>6.133742344159871</v>
+        <v>7.5207887171334864</v>
       </c>
       <c r="M78">
-        <v>7.598503783976954</v>
+        <v>7.5985037839769536</v>
       </c>
       <c r="N78">
-        <v>0.05649290420367686</v>
+        <v>5.6492904203676857E-2</v>
       </c>
       <c r="O78">
-        <v>0.001098764325234322</v>
+        <v>1.098764325234322E-3</v>
       </c>
       <c r="P78">
-        <v>0.05713307072835671</v>
+        <v>5.7133070728356709E-2</v>
       </c>
       <c r="Q78">
-        <v>0.002838068134786781</v>
+        <v>2.8380681347867811E-3</v>
       </c>
       <c r="R78">
-        <v>0.001432867578889135</v>
+        <v>1.432867578889135E-3</v>
       </c>
       <c r="S78">
-        <v>6.715456468700968E-07</v>
+        <v>6.7154564687009684E-7</v>
       </c>
       <c r="T78">
-        <v>0.04246347114433364</v>
+        <v>4.2463471144333638E-2</v>
       </c>
       <c r="U78">
-        <v>0.001024327573803024</v>
+        <v>1.024327573803024E-3</v>
       </c>
       <c r="V78">
-        <v>5.200251902288539</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>5.2002519022885387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.079991377223073E-06</v>
+        <v>4.0799913772230732E-6</v>
       </c>
       <c r="C79">
-        <v>0.1592578945005408</v>
+        <v>0.15925789450054079</v>
       </c>
       <c r="D79">
-        <v>0.0009834771095047113</v>
+        <v>9.8347710950471125E-4</v>
       </c>
       <c r="E79">
-        <v>0.1672046091093181</v>
+        <v>0.16720460910931809</v>
       </c>
       <c r="F79">
-        <v>7.196888189824468</v>
+        <v>7.1968881898244677</v>
       </c>
       <c r="K79">
         <v>7.528859655074033</v>
       </c>
       <c r="L79">
-        <v>6.162271971682635</v>
+        <v>7.5267121645387149</v>
       </c>
       <c r="M79">
-        <v>7.607418262614247</v>
+        <v>7.6074182626142468</v>
       </c>
       <c r="N79">
-        <v>0.05890134506795698</v>
+        <v>5.8901345067956981E-2</v>
       </c>
       <c r="O79">
-        <v>0.001173348465625413</v>
+        <v>1.1733484656254131E-3</v>
       </c>
       <c r="P79">
-        <v>0.05949372301503367</v>
+        <v>5.9493723015033667E-2</v>
       </c>
       <c r="Q79">
-        <v>0.002909658256977839</v>
+        <v>2.909658256977839E-3</v>
       </c>
       <c r="R79">
-        <v>0.001495136971638799</v>
+        <v>1.4951369716387989E-3</v>
       </c>
       <c r="S79">
-        <v>7.035522503668308E-07</v>
+        <v>7.0355225036683084E-7</v>
       </c>
       <c r="T79">
-        <v>0.04426517303870454</v>
+        <v>4.4265173038704538E-2</v>
       </c>
       <c r="U79">
-        <v>0.001092425102120566</v>
+        <v>1.0924251021205661E-3</v>
       </c>
       <c r="V79">
-        <v>5.329812366436266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>5.3298123664362658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.881600868379576E-06</v>
+        <v>3.8816008683795762E-6</v>
       </c>
       <c r="C80">
-        <v>0.1664521862001334</v>
+        <v>0.16645218620013341</v>
       </c>
       <c r="D80">
-        <v>0.001079529919191684</v>
+        <v>1.079529919191684E-3</v>
       </c>
       <c r="E80">
-        <v>0.1746629711692403</v>
+        <v>0.17466297116924029</v>
       </c>
       <c r="F80">
-        <v>7.196859937158551</v>
+        <v>7.1968599371585507</v>
       </c>
       <c r="K80">
-        <v>7.534770461498216</v>
+        <v>7.5347704614982156</v>
       </c>
       <c r="L80">
-        <v>6.177411258033588</v>
+        <v>7.5326140939898032</v>
       </c>
       <c r="M80">
-        <v>7.61067806652524</v>
+        <v>7.6106780665252396</v>
       </c>
       <c r="N80">
-        <v>0.06152534491351751</v>
+        <v>6.1525344913517507E-2</v>
       </c>
       <c r="O80">
-        <v>0.001245990841417036</v>
+        <v>1.2459908414170361E-3</v>
       </c>
       <c r="P80">
-        <v>0.06206572595858166</v>
+        <v>6.2065725958581661E-2</v>
       </c>
       <c r="Q80">
-        <v>0.003023800889292465</v>
+        <v>3.0238008892924649E-3</v>
       </c>
       <c r="R80">
-        <v>0.001563065763429182</v>
+        <v>1.5630657634291821E-3</v>
       </c>
       <c r="S80">
-        <v>4.829335581644815E-07</v>
+        <v>4.8293355816448145E-7</v>
       </c>
       <c r="T80">
-        <v>0.04622757067218564</v>
+        <v>4.6227570672185643E-2</v>
       </c>
       <c r="U80">
-        <v>0.001157582414855469</v>
+        <v>1.1575824148554691E-3</v>
       </c>
       <c r="V80">
-        <v>5.467648756918591</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>5.4676487569185914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.666367237461606E-06</v>
+        <v>3.6663672374616061E-6</v>
       </c>
       <c r="C81">
-        <v>0.1743270745944639</v>
+        <v>0.17432707459446389</v>
       </c>
       <c r="D81">
-        <v>0.001195588499331572</v>
+        <v>1.195588499331572E-3</v>
       </c>
       <c r="E81">
         <v>0.1827807791967285</v>
       </c>
       <c r="F81">
-        <v>7.196830557990659</v>
+        <v>7.1968305579906593</v>
       </c>
       <c r="K81">
-        <v>7.540854874579098</v>
+        <v>7.5408548745790984</v>
       </c>
       <c r="L81">
-        <v>6.210447201830697</v>
+        <v>7.5386902704686136</v>
       </c>
       <c r="M81">
-        <v>7.620302243013183</v>
+        <v>7.6203022430131826</v>
       </c>
       <c r="N81">
-        <v>0.0643957903455223</v>
+        <v>6.43957903455223E-2</v>
       </c>
       <c r="O81">
-        <v>0.001342451736136467</v>
+        <v>1.342451736136467E-3</v>
       </c>
       <c r="P81">
-        <v>0.06487724619997638</v>
+        <v>6.4877246199976382E-2</v>
       </c>
       <c r="Q81">
-        <v>0.003113891834609821</v>
+        <v>3.1138918346098211E-3</v>
       </c>
       <c r="R81">
-        <v>0.001637474469613516</v>
+        <v>1.6374744696135159E-3</v>
       </c>
       <c r="S81">
-        <v>5.057853333114652E-07</v>
+        <v>5.0578533331146517E-7</v>
       </c>
       <c r="T81">
-        <v>0.04837376058920136</v>
+        <v>4.8373760589201363E-2</v>
       </c>
       <c r="U81">
-        <v>0.001244733537950804</v>
+        <v>1.2447335379508039E-3</v>
       </c>
       <c r="V81">
-        <v>5.61730266745997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <v>5.6173026674599704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.432248494858325E-06</v>
+        <v>3.432248494858325E-6</v>
       </c>
       <c r="C82">
-        <v>0.1829836488992206</v>
+        <v>0.18298364889922061</v>
       </c>
       <c r="D82">
-        <v>0.001338477257469145</v>
+        <v>1.338477257469145E-3</v>
       </c>
       <c r="E82">
-        <v>0.1916444653415857</v>
+        <v>0.19164446534158569</v>
       </c>
       <c r="F82">
-        <v>7.196799933597951</v>
+        <v>7.1967999335979513</v>
       </c>
       <c r="K82">
-        <v>7.546882497970507</v>
+        <v>7.5468824979705067</v>
       </c>
       <c r="L82">
-        <v>6.245954883012525</v>
+        <v>7.5447138402252376</v>
       </c>
       <c r="M82">
-        <v>7.630106652523468</v>
+        <v>7.6301066525234678</v>
       </c>
       <c r="N82">
-        <v>0.0675484572759916</v>
+        <v>6.7548457275991597E-2</v>
       </c>
       <c r="O82">
-        <v>0.00145405194151283</v>
+        <v>1.45405194151283E-3</v>
       </c>
       <c r="P82">
-        <v>0.0679654139182447</v>
+        <v>6.7965413918244705E-2</v>
       </c>
       <c r="Q82">
-        <v>0.0032179720920173</v>
+        <v>3.2179720920173E-3</v>
       </c>
       <c r="R82">
-        <v>0.001719322903827527</v>
+        <v>1.7193229038275271E-3</v>
       </c>
       <c r="S82">
-        <v>5.343203807165508E-07</v>
+        <v>5.3432038071655084E-7</v>
       </c>
       <c r="T82">
-        <v>0.05073021194176389</v>
+        <v>5.0730211941763893E-2</v>
       </c>
       <c r="U82">
-        <v>0.001344915765318709</v>
+        <v>1.3449157653187089E-3</v>
       </c>
       <c r="V82">
-        <v>5.780590471415778</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>5.7805904714157776</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.291351241329827E-06</v>
+        <v>6.2913512413298271E-6</v>
       </c>
       <c r="C83">
-        <v>0.1925439210908917</v>
+        <v>0.19254392109089169</v>
       </c>
       <c r="D83">
-        <v>0.0008117112023902886</v>
+        <v>8.1171120239028856E-4</v>
       </c>
       <c r="E83">
-        <v>0.2024208813863408</v>
+        <v>0.20242088138634079</v>
       </c>
       <c r="F83">
-        <v>9.756799933597952</v>
+        <v>9.7567999335979518</v>
       </c>
       <c r="K83">
-        <v>7.552836756597418</v>
+        <v>7.5528367565974177</v>
       </c>
       <c r="L83">
-        <v>6.212566434187889</v>
+        <v>7.5506659012409711</v>
       </c>
       <c r="M83">
         <v>7.642655938208808</v>
       </c>
       <c r="N83">
-        <v>0.07102711018833259</v>
+        <v>7.102711018833259E-2</v>
       </c>
       <c r="O83">
-        <v>0.001322682094457349</v>
+        <v>1.322682094457349E-3</v>
       </c>
       <c r="P83">
-        <v>0.07137317401436194</v>
+        <v>7.137317401436194E-2</v>
       </c>
       <c r="Q83">
-        <v>0.003063738214197617</v>
+        <v>3.063738214197617E-3</v>
       </c>
       <c r="R83">
-        <v>0.001809785460851043</v>
+        <v>1.809785460851043E-3</v>
       </c>
       <c r="S83">
-        <v>2.890120952408229E-07</v>
+        <v>2.890120952408229E-7</v>
       </c>
       <c r="T83">
-        <v>0.05332943805631364</v>
+        <v>5.3329438056313641E-2</v>
       </c>
       <c r="U83">
-        <v>0.001259768125450806</v>
+        <v>1.2597681254508061E-3</v>
       </c>
       <c r="V83">
-        <v>5.92534682183377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>5.9253468218337702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.990787608053459E-06</v>
+        <v>5.990787608053459E-6</v>
       </c>
       <c r="C84">
-        <v>0.2031957105291418</v>
+        <v>0.20319571052914179</v>
       </c>
       <c r="D84">
-        <v>0.0008993270810176971</v>
+        <v>8.9932708101769711E-4</v>
       </c>
       <c r="E84">
-        <v>0.213598795401101</v>
+        <v>0.21359879540110099</v>
       </c>
       <c r="F84">
-        <v>9.756799933597952</v>
+        <v>9.7567999335979518</v>
       </c>
       <c r="K84">
-        <v>7.558653554137725</v>
+        <v>7.5586535541377247</v>
       </c>
       <c r="L84">
-        <v>6.261510746688607</v>
+        <v>7.5564599588359327</v>
       </c>
       <c r="M84">
-        <v>7.657571096863583</v>
+        <v>7.6575710968635828</v>
       </c>
       <c r="N84">
-        <v>0.07489957841577011</v>
+        <v>7.4899578415770107E-2</v>
       </c>
       <c r="O84">
-        <v>0.001441017079817287</v>
+        <v>1.4410170798172871E-3</v>
       </c>
       <c r="P84">
-        <v>0.07516814266992662</v>
+        <v>7.5168142669926621E-2</v>
       </c>
       <c r="Q84">
-        <v>0.003131658943081466</v>
+        <v>3.1316589430814661E-3</v>
       </c>
       <c r="R84">
-        <v>0.001910313041337477</v>
+        <v>1.9103130413374769E-3</v>
       </c>
       <c r="S84">
-        <v>4.101685125234687E-07</v>
+        <v>4.1016851252346872E-7</v>
       </c>
       <c r="T84">
-        <v>0.05622219749691713</v>
+        <v>5.6222197496917127E-2</v>
       </c>
       <c r="U84">
-        <v>0.001371361852788115</v>
+        <v>1.3713618527881151E-3</v>
       </c>
       <c r="V84">
-        <v>6.085452895298595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>6.0854528952985953</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.657678880057626E-06</v>
+        <v>5.6576788800576259E-6</v>
       </c>
       <c r="C85">
         <v>0.2150954977907962</v>
       </c>
       <c r="D85">
-        <v>0.001007419415846917</v>
+        <v>1.0074194158469171E-3</v>
       </c>
       <c r="E85">
-        <v>0.2260234301697787</v>
+        <v>0.22602343016977869</v>
       </c>
       <c r="F85">
-        <v>9.756799933597952</v>
+        <v>9.7567999335979518</v>
       </c>
       <c r="K85">
-        <v>7.564154284298499</v>
+        <v>7.5641542842984988</v>
       </c>
       <c r="L85">
-        <v>6.301079249266397</v>
+        <v>7.561936981499664</v>
       </c>
       <c r="M85">
-        <v>7.668620058530286</v>
+        <v>7.6686200585302862</v>
       </c>
       <c r="N85">
-        <v>0.07922067025906146</v>
+        <v>7.922067025906146E-2</v>
       </c>
       <c r="O85">
-        <v>0.001565685122790901</v>
+        <v>1.565685122790901E-3</v>
       </c>
       <c r="P85">
-        <v>0.07940558288915281</v>
+        <v>7.9405582889152809E-2</v>
       </c>
       <c r="Q85">
-        <v>0.003238598747131408</v>
+        <v>3.238598747131408E-3</v>
       </c>
       <c r="R85">
-        <v>0.002022660269150709</v>
+        <v>2.022660269150709E-3</v>
       </c>
       <c r="S85">
-        <v>4.340094247549694E-07</v>
+        <v>4.3400942475496939E-7</v>
       </c>
       <c r="T85">
-        <v>0.05944871724068943</v>
+        <v>5.9448717240689432E-2</v>
       </c>
       <c r="U85">
-        <v>0.001487890438580742</v>
+        <v>1.487890438580742E-3</v>
       </c>
       <c r="V85">
-        <v>6.261183610056406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+        <v>6.2611836100564062</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.286765471928643E-06</v>
+        <v>5.2867654719286426E-6</v>
       </c>
       <c r="C86">
-        <v>0.2284760026892304</v>
+        <v>0.22847600268923041</v>
       </c>
       <c r="D86">
-        <v>0.001143954137989683</v>
+        <v>1.143954137989683E-3</v>
       </c>
       <c r="E86">
-        <v>0.2399049978882364</v>
+        <v>0.23990499788823641</v>
       </c>
       <c r="F86">
-        <v>9.756799933597952</v>
+        <v>9.7567999335979518</v>
       </c>
       <c r="K86">
-        <v>7.569471458939667</v>
+        <v>7.5694714589396668</v>
       </c>
       <c r="L86">
-        <v>6.344061025495348</v>
+        <v>7.5672308159321764</v>
       </c>
       <c r="M86">
         <v>7.679965901145307</v>
       </c>
       <c r="N86">
-        <v>0.08407410683007832</v>
+        <v>8.4074106830078321E-2</v>
       </c>
       <c r="O86">
-        <v>0.001711227177745462</v>
+        <v>1.7112271777454621E-3</v>
       </c>
       <c r="P86">
-        <v>0.08416601939802909</v>
+        <v>8.416601939802909E-2</v>
       </c>
       <c r="Q86">
-        <v>0.00336281534115728</v>
+        <v>3.3628153411572798E-3</v>
       </c>
       <c r="R86">
-        <v>0.002149049410383581</v>
+        <v>2.1490494103835809E-3</v>
       </c>
       <c r="S86">
-        <v>4.64359748424701E-07</v>
+        <v>4.6435974842470099E-7</v>
       </c>
       <c r="T86">
-        <v>0.06307126891582118</v>
+        <v>6.3071268915821183E-2</v>
       </c>
       <c r="U86">
-        <v>0.00162315296918921</v>
+        <v>1.6231529691892099E-3</v>
       </c>
       <c r="V86">
         <v>6.45507552348292</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.871710885682768E-06</v>
+        <v>4.8717108856827677E-6</v>
       </c>
       <c r="C87">
-        <v>0.2436314725926464</v>
+        <v>0.24363147259264639</v>
       </c>
       <c r="D87">
-        <v>0.00132158208592949</v>
+        <v>1.3215820859294901E-3</v>
       </c>
       <c r="E87">
-        <v>0.2555010465291208</v>
+        <v>0.25550104652912081</v>
       </c>
       <c r="F87">
-        <v>9.756799933597952</v>
+        <v>9.7567999335979518</v>
       </c>
       <c r="K87">
-        <v>7.574559979357219</v>
+        <v>7.5745599793572191</v>
       </c>
       <c r="L87">
-        <v>6.391207110195615</v>
+        <v>7.5722959388598987</v>
       </c>
       <c r="M87">
-        <v>7.691611308634336</v>
+        <v>7.6916113086343358</v>
       </c>
       <c r="N87">
-        <v>0.0895649654735672</v>
+        <v>8.9564965473567196E-2</v>
       </c>
       <c r="O87">
-        <v>0.001883935356810726</v>
+        <v>1.8839353568107259E-3</v>
       </c>
       <c r="P87">
-        <v>0.08955289966848722</v>
+        <v>8.9552899668487215E-2</v>
       </c>
       <c r="Q87">
-        <v>0.003509942527176732</v>
+        <v>3.5099425271767318E-3</v>
       </c>
       <c r="R87">
-        <v>0.002292288413759258</v>
+        <v>2.2922884137592582E-3</v>
       </c>
       <c r="S87">
-        <v>5.040461462243504E-07</v>
+        <v>5.040461462243504E-7</v>
       </c>
       <c r="T87">
-        <v>0.06716780997892999</v>
+        <v>6.7167809978929988E-2</v>
       </c>
       <c r="U87">
-        <v>0.001782509924881751</v>
+        <v>1.7825099248817511E-3</v>
       </c>
       <c r="V87">
-        <v>6.670420535506586</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>6.6704205355065858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.404887174543334E-06</v>
+        <v>4.4048871745433337E-6</v>
       </c>
       <c r="C88">
-        <v>0.2609393219145548</v>
+        <v>0.26093932191455482</v>
       </c>
       <c r="D88">
-        <v>0.001561633447052779</v>
+        <v>1.5616334470527789E-3</v>
       </c>
       <c r="E88">
-        <v>0.273129700650396</v>
+        <v>0.27312970065039599</v>
       </c>
       <c r="F88">
-        <v>9.756799933597952</v>
+        <v>9.7567999335979518</v>
       </c>
       <c r="K88">
-        <v>7.579364346813345</v>
+        <v>7.5793643468133451</v>
       </c>
       <c r="L88">
-        <v>6.443597565267277</v>
+        <v>7.5770792980204691</v>
       </c>
       <c r="M88">
-        <v>7.70354922772397</v>
+        <v>7.7035492277239701</v>
       </c>
       <c r="N88">
-        <v>0.09582789619619267</v>
+        <v>9.5827896196192669E-2</v>
       </c>
       <c r="O88">
-        <v>0.00209351153694548</v>
+        <v>2.09351153694548E-3</v>
       </c>
       <c r="P88">
-        <v>0.09569882517858083</v>
+        <v>9.5698825178580832E-2</v>
       </c>
       <c r="Q88">
-        <v>0.003688931039800585</v>
+        <v>3.688931039800585E-3</v>
       </c>
       <c r="R88">
-        <v>0.002455987297160189</v>
+        <v>2.455987297160189E-3</v>
       </c>
       <c r="S88">
-        <v>5.57921724592477E-07</v>
+        <v>5.5792172459247701E-7</v>
       </c>
       <c r="T88">
-        <v>0.07183818855421914</v>
+        <v>7.183818855421914E-2</v>
       </c>
       <c r="U88">
-        <v>0.001974073239642681</v>
+        <v>1.9740732396426809E-3</v>
       </c>
       <c r="V88">
-        <v>6.911665588668965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>6.9116655886689653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.875771049880031E-06</v>
+        <v>3.8757710498800314E-6</v>
       </c>
       <c r="C89">
-        <v>0.2808914517966704</v>
+        <v>0.28089145179667041</v>
       </c>
       <c r="D89">
-        <v>0.00190364696042735</v>
+        <v>1.90364696042735E-3</v>
       </c>
       <c r="E89">
-        <v>0.2931827538856718</v>
+        <v>0.29318275388567178</v>
       </c>
       <c r="F89">
-        <v>9.755513661291641</v>
+        <v>9.7555136612916407</v>
       </c>
       <c r="K89">
-        <v>7.583816513175386</v>
+        <v>7.5838165131753863</v>
       </c>
       <c r="L89">
-        <v>6.501099068482397</v>
+        <v>7.58151095133453</v>
       </c>
       <c r="M89">
-        <v>7.715253611693898</v>
+        <v>7.7152536116938979</v>
       </c>
       <c r="N89">
         <v>0.1030382334776732</v>
       </c>
       <c r="O89">
-        <v>0.002354612492302013</v>
+        <v>2.3546124923020128E-3</v>
       </c>
       <c r="P89">
         <v>0.1027765093431024</v>
       </c>
       <c r="Q89">
-        <v>0.003919087266947802</v>
+        <v>3.9190872669478023E-3</v>
       </c>
       <c r="R89">
-        <v>0.002644866479886004</v>
+        <v>2.6448664798860038E-3</v>
       </c>
       <c r="S89">
-        <v>5.459839817634434E-07</v>
+        <v>5.4598398176344335E-7</v>
       </c>
       <c r="T89">
-        <v>0.07721235127072502</v>
+        <v>7.7212351270725024E-2</v>
       </c>
       <c r="U89">
-        <v>0.002209594820126749</v>
+        <v>2.2095948201267491E-3</v>
       </c>
       <c r="V89">
-        <v>7.184926582261317</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <v>7.1849265822613173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3.276674500287508E-06</v>
+        <v>3.2766745002875081E-6</v>
       </c>
       <c r="C90">
         <v>0.304140435533024</v>
       </c>
       <c r="D90">
-        <v>0.002425354810428262</v>
+        <v>2.4253548104282621E-3</v>
       </c>
       <c r="E90">
-        <v>0.3161678838858301</v>
+        <v>0.31616788388583011</v>
       </c>
       <c r="F90">
         <v>9.755472395469841</v>
       </c>
       <c r="K90">
-        <v>7.587864342137632</v>
+        <v>7.5878643421376317</v>
       </c>
       <c r="L90">
-        <v>6.571253086493152</v>
+        <v>7.5855502033207758</v>
       </c>
       <c r="M90">
-        <v>7.727997406618471</v>
+        <v>7.7279974066184707</v>
       </c>
       <c r="N90">
         <v>0.1114285352264542</v>
       </c>
       <c r="O90">
-        <v>0.00270225049509194</v>
+        <v>2.7022504950919399E-3</v>
       </c>
       <c r="P90">
         <v>0.1110146278494486</v>
       </c>
       <c r="Q90">
-        <v>0.004220271432399154</v>
+        <v>4.2202714323991541E-3</v>
       </c>
       <c r="R90">
-        <v>0.002865226521211358</v>
+        <v>2.8652265212113582E-3</v>
       </c>
       <c r="S90">
-        <v>6.432807145297218E-07</v>
+        <v>6.4328071452972178E-7</v>
       </c>
       <c r="T90">
-        <v>0.08346258097494155</v>
+        <v>8.3462580974941553E-2</v>
       </c>
       <c r="U90">
-        <v>0.002518200068666961</v>
+        <v>2.518200068666961E-3</v>
       </c>
       <c r="V90">
-        <v>7.500629667427962</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+        <v>7.5006296674279618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.595321071314463E-06</v>
+        <v>2.5953210713144629E-6</v>
       </c>
       <c r="C91">
-        <v>0.3315690792350781</v>
+        <v>0.33156907923507811</v>
       </c>
       <c r="D91">
-        <v>0.003312573585101316</v>
+        <v>3.312573585101316E-3</v>
       </c>
       <c r="E91">
-        <v>0.3427200755864095</v>
+        <v>0.34272007558640949</v>
       </c>
       <c r="F91">
-        <v>9.755427559788039</v>
+        <v>9.7554275597880391</v>
       </c>
       <c r="K91">
-        <v>7.591353473967019</v>
+        <v>7.5913534739670192</v>
       </c>
       <c r="L91">
-        <v>6.656865473963568</v>
+        <v>7.5890279198758916</v>
       </c>
       <c r="M91">
         <v>7.740920310401493</v>
@@ -5513,367 +7635,312 @@
         <v>0.1213127429293053</v>
       </c>
       <c r="O91">
-        <v>0.003201770709524978</v>
+        <v>3.2017707095249779E-3</v>
       </c>
       <c r="P91">
         <v>0.120723205705544</v>
       </c>
       <c r="Q91">
-        <v>0.004665212551012622</v>
+        <v>4.665212551012622E-3</v>
       </c>
       <c r="R91">
-        <v>0.003125643179438343</v>
+        <v>3.1256431794383431E-3</v>
       </c>
       <c r="S91">
-        <v>8.091951325187358E-07</v>
+        <v>8.0919513251873583E-7</v>
       </c>
       <c r="T91">
-        <v>0.09082116105733017</v>
+        <v>9.0821161057330166E-2</v>
       </c>
       <c r="U91">
-        <v>0.002951477289011625</v>
+        <v>2.9514772890116251E-3</v>
       </c>
       <c r="V91">
         <v>7.876768763304784</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.826181968391339E-06</v>
+        <v>1.826181968391339E-6</v>
       </c>
       <c r="C92">
-        <v>0.3643947298000758</v>
+        <v>0.36439472980007581</v>
       </c>
       <c r="D92">
-        <v>0.005112362917488122</v>
+        <v>5.1123629174881216E-3</v>
       </c>
       <c r="E92">
-        <v>0.3736913197192783</v>
+        <v>0.37369131971927833</v>
       </c>
       <c r="F92">
-        <v>9.755378396901541</v>
+        <v>9.7553783969015413</v>
       </c>
       <c r="K92">
-        <v>7.594149949384629</v>
+        <v>7.5941499493846294</v>
       </c>
       <c r="L92">
-        <v>6.771320360264257</v>
+        <v>7.5918285584897349</v>
       </c>
       <c r="M92">
-        <v>7.753969979222284</v>
+        <v>7.7539699792222843</v>
       </c>
       <c r="N92">
-        <v>0.1331238401512833</v>
+        <v>0.13312384015128331</v>
       </c>
       <c r="O92">
-        <v>0.004046344082174814</v>
+        <v>4.0463440821748142E-3</v>
       </c>
       <c r="P92">
         <v>0.1323290050209972</v>
       </c>
       <c r="Q92">
-        <v>0.005445661809612258</v>
+        <v>5.4456618096122584E-3</v>
       </c>
       <c r="R92">
-        <v>0.003438126577868925</v>
+        <v>3.4381265778689251E-3</v>
       </c>
       <c r="S92">
-        <v>1.14520661295198E-06</v>
+        <v>1.14520661295198E-6</v>
       </c>
       <c r="T92">
-        <v>0.09960812943416203</v>
+        <v>9.9608129434162029E-2</v>
       </c>
       <c r="U92">
-        <v>0.003661891954816657</v>
+        <v>3.6618919548166572E-3</v>
       </c>
       <c r="V92">
-        <v>8.354021504135899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+        <v>8.3540215041358987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.002669178581497E-06</v>
+        <v>1.002669178581497E-6</v>
       </c>
       <c r="C93">
-        <v>0.4043149927870301</v>
+        <v>0.40431499278703009</v>
       </c>
       <c r="D93">
-        <v>0.01011288299764739</v>
+        <v>1.011288299764739E-2</v>
       </c>
       <c r="E93">
         <v>0.4104238221347139</v>
       </c>
       <c r="F93">
-        <v>9.755323887197738</v>
+        <v>9.7553238871977381</v>
       </c>
       <c r="K93">
         <v>7.59606122921371</v>
       </c>
       <c r="L93">
-        <v>6.954210023395219</v>
+        <v>7.5937546847696744</v>
       </c>
       <c r="M93">
-        <v>7.767333873610147</v>
+        <v>7.7673338736101467</v>
       </c>
       <c r="N93">
-        <v>0.1474657841589621</v>
+        <v>0.14746578415896211</v>
       </c>
       <c r="O93">
-        <v>0.006028744479887708</v>
+        <v>6.0287444798877076E-3</v>
       </c>
       <c r="P93">
-        <v>0.1464271542667066</v>
+        <v>0.14642715426670661</v>
       </c>
       <c r="Q93">
-        <v>0.007349486023723661</v>
+        <v>7.3494860237236607E-3</v>
       </c>
       <c r="R93">
-        <v>0.003820013396897367</v>
+        <v>3.8200133968973671E-3</v>
       </c>
       <c r="S93">
-        <v>2.066295168658102E-06</v>
+        <v>2.0662951686581021E-6</v>
       </c>
       <c r="T93">
         <v>0.1102688224874226</v>
       </c>
       <c r="U93">
-        <v>0.005272232537821258</v>
+        <v>5.272232537821258E-3</v>
       </c>
       <c r="V93">
-        <v>9.066143553954134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+        <v>9.0661435539541344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.673034428752686E-07</v>
+        <v>3.6730344287526858E-7</v>
       </c>
       <c r="C94">
         <v>0.453590256510703</v>
       </c>
       <c r="D94">
-        <v>0.0294338872277478</v>
+        <v>2.9433887227747799E-2</v>
       </c>
       <c r="E94">
-        <v>0.4562466829622192</v>
+        <v>0.45624668296221921</v>
       </c>
       <c r="F94">
-        <v>9.755262614777383</v>
+        <v>9.7552626147773829</v>
       </c>
       <c r="K94">
-        <v>7.596761148401088</v>
+        <v>7.5967611484010877</v>
       </c>
       <c r="L94">
-        <v>7.275278136462461</v>
+        <v>7.5945089280209981</v>
       </c>
       <c r="M94">
-        <v>7.783209442136298</v>
+        <v>7.7832094421362976</v>
       </c>
       <c r="N94">
         <v>0.1651454141188464</v>
       </c>
       <c r="O94">
-        <v>0.0129788055491305</v>
+        <v>1.2978805549130499E-2</v>
       </c>
       <c r="P94">
-        <v>0.1638118627970795</v>
+        <v>0.16381186279707949</v>
       </c>
       <c r="Q94">
-        <v>0.01417040307239925</v>
+        <v>1.417040307239925E-2</v>
       </c>
       <c r="R94">
-        <v>0.004297256784613456</v>
+        <v>4.297256784613456E-3</v>
       </c>
       <c r="S94">
-        <v>4.747900542389165E-06</v>
+        <v>4.7479005423891646E-6</v>
       </c>
       <c r="T94">
         <v>0.1233933962311228</v>
       </c>
       <c r="U94">
-        <v>0.01078983985605237</v>
+        <v>1.078983985605237E-2</v>
       </c>
       <c r="V94">
-        <v>10.59421132459065</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+        <v>10.594211324590651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.495864703923502E-07</v>
+        <v>1.495864703923502E-7</v>
       </c>
       <c r="C95">
-        <v>0.5141840235511252</v>
+        <v>0.51418402355112525</v>
       </c>
       <c r="D95">
-        <v>0.0746421072305388</v>
+        <v>7.4642107230538796E-2</v>
       </c>
       <c r="E95">
-        <v>0.5154415293885972</v>
+        <v>0.51544152938859722</v>
       </c>
       <c r="F95">
-        <v>9.752995444264625</v>
+        <v>9.7529954442646254</v>
       </c>
       <c r="K95">
-        <v>7.595363235714792</v>
+        <v>7.5953632357147924</v>
       </c>
       <c r="L95">
-        <v>7.550685854727008</v>
+        <v>7.5931961989120804</v>
       </c>
       <c r="M95">
-        <v>7.804248495883522</v>
+        <v>7.8042484958835221</v>
       </c>
       <c r="N95">
         <v>0.1868835010573773</v>
       </c>
       <c r="O95">
-        <v>0.0288431311921698</v>
+        <v>2.8843131192169798E-2</v>
       </c>
       <c r="P95">
-        <v>0.1851892141863196</v>
+        <v>0.18518921418631959</v>
       </c>
       <c r="Q95">
-        <v>0.02979300221342863</v>
+        <v>2.9793002213428631E-2</v>
       </c>
       <c r="R95">
-        <v>0.004910472339480752</v>
+        <v>4.9104723394807516E-3</v>
       </c>
       <c r="S95">
-        <v>1.059837552374522E-05</v>
+        <v>1.059837552374522E-5</v>
       </c>
       <c r="T95">
         <v>0.1394796185704186</v>
       </c>
       <c r="U95">
-        <v>0.02332621645769423</v>
+        <v>2.332621645769423E-2</v>
       </c>
       <c r="V95">
         <v>13.95835395718813</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>8.377125759557488E-08</v>
+        <v>8.377125759557488E-8</v>
       </c>
       <c r="C96">
-        <v>0.5874410096045565</v>
+        <v>0.58744100960455647</v>
       </c>
       <c r="D96">
-        <v>0.1365777195988535</v>
+        <v>0.13657771959885351</v>
       </c>
       <c r="E96">
-        <v>0.5882669154271893</v>
+        <v>0.58826691542718934</v>
       </c>
       <c r="F96">
-        <v>9.752801416628238</v>
+        <v>9.7528014166282375</v>
       </c>
       <c r="K96">
-        <v>7.590181485185687</v>
+        <v>7.5901814851856866</v>
       </c>
       <c r="L96">
-        <v>7.678387015277787</v>
+        <v>7.5881138554064664</v>
       </c>
       <c r="M96">
-        <v>7.826558103689745</v>
+        <v>7.8265581036897451</v>
       </c>
       <c r="N96">
-        <v>0.2132235627015786</v>
+        <v>0.21322356270157861</v>
       </c>
       <c r="O96">
-        <v>0.05041057463372779</v>
+        <v>5.0410574633727792E-2</v>
       </c>
       <c r="P96">
-        <v>0.2110885828484682</v>
+        <v>0.21108858284846821</v>
       </c>
       <c r="Q96">
-        <v>0.05103198659925395</v>
+        <v>5.1031986599253953E-2</v>
       </c>
       <c r="R96">
-        <v>0.005727118000140254</v>
+        <v>5.7271180001402539E-3</v>
       </c>
       <c r="S96">
-        <v>1.711378021479856E-05</v>
+        <v>1.7113780214798561E-5</v>
       </c>
       <c r="T96">
-        <v>0.1588385189225394</v>
+        <v>0.15883851892253939</v>
       </c>
       <c r="U96">
-        <v>0.0403700832702636</v>
+        <v>4.0370083270263597E-2</v>
       </c>
       <c r="V96">
         <v>19.76537377552998</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>5.483714320002093E-08</v>
-      </c>
-      <c r="C97">
-        <v>0.6776136676056957</v>
-      </c>
-      <c r="D97">
-        <v>0.2143078409282591</v>
-      </c>
-      <c r="E97">
-        <v>0.6782647995492717</v>
-      </c>
-      <c r="F97">
-        <v>9.752567415975777</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0.2457861603151483</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0.2430999020983105</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0.006869118844125333</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0.1825322060529942</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>19.5594844653682</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>